--- a/code/screpo/outputs/results/comparison.xlsx
+++ b/code/screpo/outputs/results/comparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ah4c20\Asyl\PostDoc\SOCIALCARE\code\screpo\outputs\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5341A45-C7CD-49B3-958C-F63692ED06D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00ECE142-563F-4B38-8C56-B7FEF142B504}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9615" yWindow="2115" windowWidth="18840" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hampshire" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="60">
   <si>
     <t>Abicare</t>
   </si>
@@ -188,6 +188,30 @@
   </si>
   <si>
     <t>DistJobs Osrm Best</t>
+  </si>
+  <si>
+    <t>AitH AbiOsrm</t>
+  </si>
+  <si>
+    <t>MK AbiOsrm</t>
+  </si>
+  <si>
+    <t>WB AbiOsrm</t>
+  </si>
+  <si>
+    <t>Paper AbiOsrm</t>
+  </si>
+  <si>
+    <t>AitH Osrm Best</t>
+  </si>
+  <si>
+    <t>MK Osrm Best</t>
+  </si>
+  <si>
+    <t>WB Osrm Best</t>
+  </si>
+  <si>
+    <t>Paper Osrm Best</t>
   </si>
 </sst>
 </file>
@@ -1119,11 +1143,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AR767"/>
+  <dimension ref="A1:AZ767"/>
   <sheetViews>
-    <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="S30" sqref="S30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1147,27 +1170,27 @@
     <col min="17" max="17" width="9.140625" style="2" customWidth="1"/>
     <col min="18" max="18" width="8.7109375" style="2" customWidth="1"/>
     <col min="19" max="19" width="8.42578125" style="2" customWidth="1"/>
-    <col min="20" max="20" width="9" style="2" customWidth="1"/>
-    <col min="21" max="21" width="8.85546875" style="2" customWidth="1"/>
-    <col min="22" max="22" width="8.42578125" style="2" customWidth="1"/>
-    <col min="23" max="25" width="9.140625" style="2" customWidth="1"/>
-    <col min="26" max="26" width="8.28515625" style="2" customWidth="1"/>
-    <col min="27" max="27" width="8.7109375" style="2" customWidth="1"/>
-    <col min="28" max="28" width="8.85546875" style="2" customWidth="1"/>
-    <col min="29" max="29" width="9.7109375" style="2" customWidth="1"/>
-    <col min="30" max="30" width="6.28515625" style="2" customWidth="1"/>
-    <col min="31" max="31" width="8.28515625" style="2" customWidth="1"/>
-    <col min="32" max="32" width="9.28515625" style="2" customWidth="1"/>
-    <col min="33" max="33" width="8.140625" style="2" customWidth="1"/>
-    <col min="34" max="35" width="7.7109375" style="2" customWidth="1"/>
-    <col min="36" max="41" width="8.5703125" style="2" customWidth="1"/>
-    <col min="42" max="42" width="8.140625" style="2" customWidth="1"/>
-    <col min="43" max="43" width="9" style="2" customWidth="1"/>
-    <col min="44" max="44" width="9.140625" style="2" customWidth="1"/>
-    <col min="45" max="16384" width="10.7109375" style="2"/>
+    <col min="20" max="24" width="9" style="2" customWidth="1"/>
+    <col min="25" max="25" width="8.85546875" style="2" customWidth="1"/>
+    <col min="26" max="26" width="8.42578125" style="2" customWidth="1"/>
+    <col min="27" max="29" width="9.140625" style="2" customWidth="1"/>
+    <col min="30" max="30" width="8.28515625" style="2" customWidth="1"/>
+    <col min="31" max="31" width="8.7109375" style="2" customWidth="1"/>
+    <col min="32" max="32" width="8.85546875" style="2" customWidth="1"/>
+    <col min="33" max="33" width="9.7109375" style="2" customWidth="1"/>
+    <col min="34" max="34" width="6.28515625" style="2" customWidth="1"/>
+    <col min="35" max="35" width="8.28515625" style="2" customWidth="1"/>
+    <col min="36" max="36" width="9.28515625" style="2" customWidth="1"/>
+    <col min="37" max="37" width="8.140625" style="2" customWidth="1"/>
+    <col min="38" max="39" width="7.7109375" style="2" customWidth="1"/>
+    <col min="40" max="45" width="8.5703125" style="2" customWidth="1"/>
+    <col min="46" max="46" width="8.140625" style="2" customWidth="1"/>
+    <col min="47" max="47" width="9" style="2" customWidth="1"/>
+    <col min="48" max="48" width="9.140625" style="2" customWidth="1"/>
+    <col min="49" max="16384" width="10.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1189,14 +1212,14 @@
       <c r="O1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:44" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:52" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
@@ -1257,80 +1280,104 @@
       <c r="T2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="U2" s="5" t="s">
+      <c r="U2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="V2" s="5" t="s">
+      <c r="Z2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="W2" s="5" t="s">
+      <c r="AA2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="X2" s="5" t="s">
+      <c r="AB2" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="Y2" s="5" t="s">
+      <c r="AC2" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="Z2" s="5" t="s">
+      <c r="AD2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="AA2" s="5" t="s">
+      <c r="AE2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="AB2" s="5" t="s">
+      <c r="AF2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="AC2" s="5" t="s">
+      <c r="AG2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="AD2" s="5" t="s">
+      <c r="AH2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="AE2" s="5" t="s">
+      <c r="AI2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AF2" s="5" t="s">
+      <c r="AJ2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="AG2" s="6" t="s">
+      <c r="AK2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="AH2" s="6" t="s">
+      <c r="AL2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="AI2" s="6" t="s">
+      <c r="AM2" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AJ2" s="6" t="s">
+      <c r="AN2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="AK2" s="6" t="s">
+      <c r="AO2" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AL2" s="6" t="s">
+      <c r="AP2" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="AM2" s="6" t="s">
+      <c r="AQ2" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="AN2" s="6" t="s">
+      <c r="AR2" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="AO2" s="6" t="s">
+      <c r="AS2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="AP2" s="6" t="s">
+      <c r="AT2" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="AQ2" s="6" t="s">
+      <c r="AU2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="AR2" s="6" t="s">
+      <c r="AV2" s="6" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AW2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AX2" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AY2" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ2" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <v>44137</v>
       </c>
@@ -1393,90 +1440,118 @@
         <v>-2070</v>
       </c>
       <c r="U3" s="9">
+        <v>-111.864</v>
+      </c>
+      <c r="V3" s="9">
+        <v>-124.294</v>
+      </c>
+      <c r="W3" s="9">
+        <v>-170.36500000000001</v>
+      </c>
+      <c r="X3" s="9">
+        <v>-2070</v>
+      </c>
+      <c r="Y3" s="9">
         <v>5452.46</v>
       </c>
-      <c r="V3" s="9">
+      <c r="Z3" s="9">
         <v>232.28</v>
       </c>
-      <c r="W3" s="9">
+      <c r="AA3" s="9">
         <v>1650.18</v>
       </c>
-      <c r="X3" s="9">
+      <c r="AB3" s="9">
         <v>325.69799999999998</v>
       </c>
-      <c r="Y3" s="9">
+      <c r="AC3" s="9">
         <v>161.1643</v>
       </c>
-      <c r="Z3" s="9">
+      <c r="AD3" s="9">
         <v>-69.680000000000007</v>
       </c>
-      <c r="AA3" s="9">
+      <c r="AE3" s="9">
         <v>-77.430000000000007</v>
       </c>
-      <c r="AB3" s="9">
+      <c r="AF3" s="9">
         <v>-127.25</v>
       </c>
-      <c r="AC3" s="9">
+      <c r="AG3" s="9">
         <v>-1882.46</v>
       </c>
-      <c r="AD3" s="10">
+      <c r="AH3" s="10">
         <v>5</v>
       </c>
-      <c r="AE3" s="9">
+      <c r="AI3" s="9">
         <v>629.8095783</v>
       </c>
-      <c r="AF3" s="10">
+      <c r="AJ3" s="10">
         <v>391</v>
       </c>
-      <c r="AG3" s="1" t="str">
-        <f t="shared" ref="AG3:AH9" si="0">IF(I3&lt;U3, "Abicare", "DST")</f>
-        <v>DST</v>
-      </c>
-      <c r="AH3" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>DST</v>
-      </c>
-      <c r="AI3" s="1" t="str">
-        <f>IF(K3&lt;V3, "Abicare","DST")</f>
-        <v>DST</v>
-      </c>
-      <c r="AJ3" s="1" t="str">
-        <f t="shared" ref="AJ3:AJ9" si="1">IF(L3&lt;W3, "Abicare", "DST")</f>
+      <c r="AK3" s="1" t="str">
+        <f>IF(I3&lt;Y3, "Abicare", "DST")</f>
+        <v>DST</v>
+      </c>
+      <c r="AL3" s="1" t="str">
+        <f>IF(J3&lt;Z3, "Abicare", "DST")</f>
+        <v>DST</v>
+      </c>
+      <c r="AM3" s="1" t="str">
+        <f>IF(K3&lt;Z3, "AbiOSRM","DST")</f>
+        <v>DST</v>
+      </c>
+      <c r="AN3" s="1" t="str">
+        <f t="shared" ref="AN3:AN9" si="0">IF(L3&lt;AA3, "Abicare", "DST")</f>
         <v>Abicare</v>
       </c>
-      <c r="AK3" s="1" t="str">
-        <f>IF(M3&lt;W3, "Abicare", "DST")</f>
-        <v>DST</v>
-      </c>
-      <c r="AL3" s="8">
+      <c r="AO3" s="1" t="str">
+        <f>IF(M3&lt;AA3, "AbiOSRM", "DST")</f>
+        <v>DST</v>
+      </c>
+      <c r="AP3" s="8">
         <v>0</v>
       </c>
-      <c r="AM3" s="1" t="str">
-        <f>IF(O3&lt;Y3, "Abicare","DST")</f>
-        <v>DST</v>
-      </c>
-      <c r="AN3" s="1" t="str">
-        <f>IF(P3&lt;Y3, "Abicare", "DST")</f>
-        <v>DST</v>
-      </c>
-      <c r="AO3" s="1" t="str">
-        <f>IF(Q3&gt;Z3,"Abicare","DST")</f>
-        <v>DST</v>
-      </c>
-      <c r="AP3" s="1" t="str">
-        <f>IF(R3&gt;AA3, "Abicare", "DST")</f>
-        <v>DST</v>
-      </c>
       <c r="AQ3" s="1" t="str">
-        <f>IF(S3&gt;AB3, "Abicare", "DST")</f>
+        <f>IF(O3&lt;AC3, "Abicare","DST")</f>
         <v>DST</v>
       </c>
       <c r="AR3" s="1" t="str">
-        <f>IF(T3&gt;AC3, "Abicare", "DST")</f>
-        <v>DST</v>
-      </c>
-    </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.2">
+        <f>IF(P3&lt;AC3, "AbiOSRM", "DST")</f>
+        <v>DST</v>
+      </c>
+      <c r="AS3" s="1" t="str">
+        <f>IF(Q3&gt;AD3,"Abicare","DST")</f>
+        <v>DST</v>
+      </c>
+      <c r="AT3" s="1" t="str">
+        <f>IF(R3&gt;AE3, "Abicare", "DST")</f>
+        <v>DST</v>
+      </c>
+      <c r="AU3" s="1" t="str">
+        <f>IF(S3&gt;AF3, "Abicare", "DST")</f>
+        <v>DST</v>
+      </c>
+      <c r="AV3" s="1" t="str">
+        <f>IF(T3&gt;AG3, "Abicare", "DST")</f>
+        <v>DST</v>
+      </c>
+      <c r="AW3" s="1" t="str">
+        <f>IF(U3&gt;AD3, "AbiOSRM", "DST")</f>
+        <v>DST</v>
+      </c>
+      <c r="AX3" s="1" t="str">
+        <f>IF(V3&gt;AE3, "AbiOSRM", "DST")</f>
+        <v>DST</v>
+      </c>
+      <c r="AY3" s="1" t="str">
+        <f>IF(W3&gt;AF3, "AbiOSRM", "DST")</f>
+        <v>DST</v>
+      </c>
+      <c r="AZ3" s="1" t="str">
+        <f>IF(X3&gt;AG3, "AbiOSRM", "DST")</f>
+        <v>DST</v>
+      </c>
+    </row>
+    <row r="4" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>44138</v>
       </c>
@@ -1508,7 +1583,7 @@
         <v>1580.1166000000001</v>
       </c>
       <c r="M4" s="9">
-        <f t="shared" ref="M4:M9" si="2">I4-H4-K4</f>
+        <f t="shared" ref="M4:M9" si="1">I4-H4-K4</f>
         <v>1688.423</v>
       </c>
       <c r="N4" s="9">
@@ -1533,90 +1608,118 @@
         <v>-2070</v>
       </c>
       <c r="U4" s="9">
+        <v>-114.473</v>
+      </c>
+      <c r="V4" s="9">
+        <v>-127.19199999999999</v>
+      </c>
+      <c r="W4" s="9">
+        <v>-174.47300000000001</v>
+      </c>
+      <c r="X4" s="9">
+        <v>-2070</v>
+      </c>
+      <c r="Y4" s="9">
         <v>5282.68</v>
       </c>
-      <c r="V4" s="9">
+      <c r="Z4" s="9">
         <v>227.02</v>
       </c>
-      <c r="W4" s="9">
+      <c r="AA4" s="9">
         <v>1665.65</v>
       </c>
-      <c r="X4" s="9">
+      <c r="AB4" s="9">
         <v>347.47329999999999</v>
       </c>
-      <c r="Y4" s="9">
+      <c r="AC4" s="9">
         <v>153.3081</v>
       </c>
-      <c r="Z4" s="9">
+      <c r="AD4" s="9">
         <v>-68.11</v>
       </c>
-      <c r="AA4" s="9">
+      <c r="AE4" s="9">
         <v>-75.67</v>
       </c>
-      <c r="AB4" s="9">
+      <c r="AF4" s="9">
         <v>-125.11</v>
       </c>
-      <c r="AC4" s="9">
+      <c r="AG4" s="9">
         <v>-1892.68</v>
       </c>
-      <c r="AD4" s="10">
+      <c r="AH4" s="10">
         <v>5</v>
       </c>
-      <c r="AE4" s="9">
+      <c r="AI4" s="9">
         <v>630.41835119999996</v>
       </c>
-      <c r="AF4" s="10">
+      <c r="AJ4" s="10">
         <v>334</v>
       </c>
-      <c r="AG4" s="1" t="str">
+      <c r="AK4" s="1" t="str">
+        <f>IF(I4&lt;Y4, "Abicare", "DST")</f>
+        <v>DST</v>
+      </c>
+      <c r="AL4" s="1" t="str">
+        <f>IF(J4&lt;Z4, "Abicare", "DST")</f>
+        <v>DST</v>
+      </c>
+      <c r="AM4" s="1" t="str">
+        <f t="shared" ref="AM4:AM9" si="2">IF(K4&lt;Z4, "AbiOSRM","DST")</f>
+        <v>DST</v>
+      </c>
+      <c r="AN4" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>DST</v>
-      </c>
-      <c r="AH4" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>DST</v>
-      </c>
-      <c r="AI4" s="1" t="str">
-        <f t="shared" ref="AI4:AI9" si="3">IF(K4&lt;V4, "Abicare","DST")</f>
-        <v>DST</v>
-      </c>
-      <c r="AJ4" s="1" t="str">
-        <f t="shared" si="1"/>
         <v>Abicare</v>
       </c>
-      <c r="AK4" s="1" t="str">
-        <f t="shared" ref="AK4:AK9" si="4">IF(M4&lt;W4, "Abicare", "DST")</f>
-        <v>DST</v>
-      </c>
-      <c r="AL4" s="8">
+      <c r="AO4" s="1" t="str">
+        <f t="shared" ref="AO4:AO9" si="3">IF(M4&lt;AA4, "AbiOSRM", "DST")</f>
+        <v>DST</v>
+      </c>
+      <c r="AP4" s="8">
         <v>0</v>
       </c>
-      <c r="AM4" s="1" t="str">
-        <f t="shared" ref="AM4:AM9" si="5">IF(O4&lt;Y4, "Abicare","DST")</f>
-        <v>DST</v>
-      </c>
-      <c r="AN4" s="1" t="str">
-        <f t="shared" ref="AN4:AN9" si="6">IF(P4&lt;Y4, "Abicare", "DST")</f>
-        <v>DST</v>
-      </c>
-      <c r="AO4" s="1" t="str">
-        <f t="shared" ref="AO4:AO9" si="7">IF(Q4&gt;Z4,"Abicare","DST")</f>
-        <v>DST</v>
-      </c>
-      <c r="AP4" s="1" t="str">
-        <f t="shared" ref="AP4:AP9" si="8">IF(R4&gt;AA4, "Abicare", "DST")</f>
-        <v>DST</v>
-      </c>
       <c r="AQ4" s="1" t="str">
-        <f t="shared" ref="AQ4:AQ9" si="9">IF(S4&gt;AB4, "Abicare", "DST")</f>
+        <f t="shared" ref="AQ4:AQ9" si="4">IF(O4&lt;AC4, "Abicare","DST")</f>
         <v>DST</v>
       </c>
       <c r="AR4" s="1" t="str">
-        <f t="shared" ref="AR4:AR9" si="10">IF(T4&gt;AC4, "Abicare", "DST")</f>
-        <v>DST</v>
-      </c>
-    </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.2">
+        <f t="shared" ref="AR4:AR9" si="5">IF(P4&lt;AC4, "AbiOSRM", "DST")</f>
+        <v>DST</v>
+      </c>
+      <c r="AS4" s="1" t="str">
+        <f t="shared" ref="AS4:AS9" si="6">IF(Q4&gt;AD4,"Abicare","DST")</f>
+        <v>DST</v>
+      </c>
+      <c r="AT4" s="1" t="str">
+        <f t="shared" ref="AT4:AT9" si="7">IF(R4&gt;AE4, "Abicare", "DST")</f>
+        <v>DST</v>
+      </c>
+      <c r="AU4" s="1" t="str">
+        <f t="shared" ref="AU4:AU9" si="8">IF(S4&gt;AF4, "Abicare", "DST")</f>
+        <v>DST</v>
+      </c>
+      <c r="AV4" s="1" t="str">
+        <f t="shared" ref="AV4:AV9" si="9">IF(T4&gt;AG4, "Abicare", "DST")</f>
+        <v>DST</v>
+      </c>
+      <c r="AW4" s="1" t="str">
+        <f t="shared" ref="AW4:AW9" si="10">IF(U4&gt;AD4, "AbiOSRM", "DST")</f>
+        <v>DST</v>
+      </c>
+      <c r="AX4" s="1" t="str">
+        <f t="shared" ref="AX4:AX9" si="11">IF(V4&gt;AE4, "AbiOSRM", "DST")</f>
+        <v>DST</v>
+      </c>
+      <c r="AY4" s="1" t="str">
+        <f t="shared" ref="AY4:AY9" si="12">IF(W4&gt;AF4, "AbiOSRM", "DST")</f>
+        <v>DST</v>
+      </c>
+      <c r="AZ4" s="1" t="str">
+        <f t="shared" ref="AZ4:AZ9" si="13">IF(X4&gt;AG4, "AbiOSRM", "DST")</f>
+        <v>DST</v>
+      </c>
+    </row>
+    <row r="5" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>44139</v>
       </c>
@@ -1648,7 +1751,7 @@
         <v>1189.2333000000001</v>
       </c>
       <c r="M5" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1295.48</v>
       </c>
       <c r="N5" s="9">
@@ -1673,90 +1776,118 @@
         <v>-1680</v>
       </c>
       <c r="U5" s="9">
+        <v>-115.35599999999999</v>
+      </c>
+      <c r="V5" s="9">
+        <v>-128.173</v>
+      </c>
+      <c r="W5" s="9">
+        <v>-190.35599999999999</v>
+      </c>
+      <c r="X5" s="9">
+        <v>-1680</v>
+      </c>
+      <c r="Y5" s="9">
         <v>4996.38</v>
       </c>
-      <c r="V5" s="9">
+      <c r="Z5" s="9">
         <v>242.58</v>
       </c>
-      <c r="W5" s="9">
+      <c r="AA5" s="9">
         <v>1273.8</v>
       </c>
-      <c r="X5" s="9">
+      <c r="AB5" s="9">
         <v>332.5421</v>
       </c>
-      <c r="Y5" s="9">
+      <c r="AC5" s="9">
         <v>165.69120000000001</v>
       </c>
-      <c r="Z5" s="9">
+      <c r="AD5" s="9">
         <v>-72.77</v>
       </c>
-      <c r="AA5" s="9">
+      <c r="AE5" s="9">
         <v>-80.86</v>
       </c>
-      <c r="AB5" s="9">
+      <c r="AF5" s="9">
         <v>-146.27000000000001</v>
       </c>
-      <c r="AC5" s="9">
+      <c r="AG5" s="9">
         <v>-1516.38</v>
       </c>
-      <c r="AD5" s="10">
+      <c r="AH5" s="10">
         <v>5</v>
       </c>
-      <c r="AE5" s="9">
+      <c r="AI5" s="9">
         <v>630.17876379999996</v>
       </c>
-      <c r="AF5" s="10">
+      <c r="AJ5" s="10">
         <v>332</v>
       </c>
-      <c r="AG5" s="1" t="str">
+      <c r="AK5" s="1" t="str">
+        <f>IF(I5&lt;Y5, "Abicare", "DST")</f>
+        <v>DST</v>
+      </c>
+      <c r="AL5" s="1" t="str">
+        <f>IF(J5&lt;Z5, "Abicare", "DST")</f>
+        <v>DST</v>
+      </c>
+      <c r="AM5" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>DST</v>
+      </c>
+      <c r="AN5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>DST</v>
-      </c>
-      <c r="AH5" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>DST</v>
-      </c>
-      <c r="AI5" s="1" t="str">
+        <v>Abicare</v>
+      </c>
+      <c r="AO5" s="1" t="str">
         <f t="shared" si="3"/>
         <v>DST</v>
       </c>
-      <c r="AJ5" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Abicare</v>
-      </c>
-      <c r="AK5" s="1" t="str">
+      <c r="AP5" s="8">
+        <v>0</v>
+      </c>
+      <c r="AQ5" s="1" t="str">
         <f t="shared" si="4"/>
         <v>DST</v>
       </c>
-      <c r="AL5" s="8">
-        <v>0</v>
-      </c>
-      <c r="AM5" s="1" t="str">
+      <c r="AR5" s="1" t="str">
         <f t="shared" si="5"/>
         <v>DST</v>
       </c>
-      <c r="AN5" s="1" t="str">
+      <c r="AS5" s="1" t="str">
         <f t="shared" si="6"/>
         <v>DST</v>
       </c>
-      <c r="AO5" s="1" t="str">
+      <c r="AT5" s="1" t="str">
         <f t="shared" si="7"/>
         <v>DST</v>
       </c>
-      <c r="AP5" s="1" t="str">
+      <c r="AU5" s="1" t="str">
         <f t="shared" si="8"/>
         <v>DST</v>
       </c>
-      <c r="AQ5" s="1" t="str">
+      <c r="AV5" s="1" t="str">
         <f t="shared" si="9"/>
         <v>DST</v>
       </c>
-      <c r="AR5" s="1" t="str">
+      <c r="AW5" s="1" t="str">
         <f t="shared" si="10"/>
         <v>DST</v>
       </c>
-    </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AX5" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>DST</v>
+      </c>
+      <c r="AY5" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>DST</v>
+      </c>
+      <c r="AZ5" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>DST</v>
+      </c>
+    </row>
+    <row r="6" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>44140</v>
       </c>
@@ -1788,7 +1919,7 @@
         <v>1159.5833</v>
       </c>
       <c r="M6" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1260.0529999999999</v>
       </c>
       <c r="N6" s="9">
@@ -1813,90 +1944,118 @@
         <v>-1649.999</v>
       </c>
       <c r="U6" s="9">
+        <v>-116.98399999999999</v>
+      </c>
+      <c r="V6" s="9">
+        <v>-129.982</v>
+      </c>
+      <c r="W6" s="9">
+        <v>-167.98400000000001</v>
+      </c>
+      <c r="X6" s="9">
+        <v>-1650</v>
+      </c>
+      <c r="Y6" s="9">
         <v>5089.72</v>
       </c>
-      <c r="V6" s="9">
+      <c r="Z6" s="9">
         <v>271.44</v>
       </c>
-      <c r="W6" s="9">
+      <c r="AA6" s="9">
         <v>1203.28</v>
       </c>
-      <c r="X6" s="9">
+      <c r="AB6" s="9">
         <v>332.73410000000001</v>
       </c>
-      <c r="Y6" s="9">
+      <c r="AC6" s="9">
         <v>193.5531</v>
       </c>
-      <c r="Z6" s="9">
+      <c r="AD6" s="9">
         <v>-81.430000000000007</v>
       </c>
-      <c r="AA6" s="9">
+      <c r="AE6" s="9">
         <v>-90.48</v>
       </c>
-      <c r="AB6" s="9">
+      <c r="AF6" s="9">
         <v>-131.75</v>
       </c>
-      <c r="AC6" s="9">
+      <c r="AG6" s="9">
         <v>-1474.72</v>
       </c>
-      <c r="AD6" s="10">
+      <c r="AH6" s="10">
         <v>5</v>
       </c>
-      <c r="AE6" s="9">
+      <c r="AI6" s="9">
         <v>631.36753980000003</v>
       </c>
-      <c r="AF6" s="10">
+      <c r="AJ6" s="10">
         <v>320</v>
       </c>
-      <c r="AG6" s="1" t="str">
+      <c r="AK6" s="1" t="str">
+        <f>IF(I6&lt;Y6, "Abicare", "DST")</f>
+        <v>DST</v>
+      </c>
+      <c r="AL6" s="1" t="str">
+        <f>IF(J6&lt;Z6, "Abicare", "DST")</f>
+        <v>DST</v>
+      </c>
+      <c r="AM6" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>DST</v>
+      </c>
+      <c r="AN6" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>DST</v>
-      </c>
-      <c r="AH6" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>DST</v>
-      </c>
-      <c r="AI6" s="1" t="str">
+        <v>Abicare</v>
+      </c>
+      <c r="AO6" s="1" t="str">
         <f t="shared" si="3"/>
         <v>DST</v>
       </c>
-      <c r="AJ6" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Abicare</v>
-      </c>
-      <c r="AK6" s="1" t="str">
+      <c r="AP6" s="8">
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="1" t="str">
         <f t="shared" si="4"/>
         <v>DST</v>
       </c>
-      <c r="AL6" s="8">
-        <v>0</v>
-      </c>
-      <c r="AM6" s="1" t="str">
+      <c r="AR6" s="1" t="str">
         <f t="shared" si="5"/>
         <v>DST</v>
       </c>
-      <c r="AN6" s="1" t="str">
+      <c r="AS6" s="1" t="str">
         <f t="shared" si="6"/>
         <v>DST</v>
       </c>
-      <c r="AO6" s="1" t="str">
+      <c r="AT6" s="1" t="str">
         <f t="shared" si="7"/>
         <v>DST</v>
       </c>
-      <c r="AP6" s="1" t="str">
+      <c r="AU6" s="1" t="str">
         <f t="shared" si="8"/>
         <v>DST</v>
       </c>
-      <c r="AQ6" s="1" t="str">
+      <c r="AV6" s="1" t="str">
         <f t="shared" si="9"/>
         <v>DST</v>
       </c>
-      <c r="AR6" s="1" t="str">
+      <c r="AW6" s="1" t="str">
         <f t="shared" si="10"/>
         <v>DST</v>
       </c>
-    </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AX6" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>DST</v>
+      </c>
+      <c r="AY6" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>DST</v>
+      </c>
+      <c r="AZ6" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>DST</v>
+      </c>
+    </row>
+    <row r="7" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <v>44141</v>
       </c>
@@ -1928,7 +2087,7 @@
         <v>1065.5</v>
       </c>
       <c r="M7" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1166.777</v>
       </c>
       <c r="N7" s="9">
@@ -1953,90 +2112,118 @@
         <v>-1545</v>
       </c>
       <c r="U7" s="9">
+        <v>-113.467</v>
+      </c>
+      <c r="V7" s="9">
+        <v>-126.074</v>
+      </c>
+      <c r="W7" s="9">
+        <v>-186.96700000000001</v>
+      </c>
+      <c r="X7" s="9">
+        <v>-1545</v>
+      </c>
+      <c r="Y7" s="9">
         <v>4617.3599999999997</v>
       </c>
-      <c r="V7" s="9">
+      <c r="Z7" s="9">
         <v>243.76</v>
       </c>
-      <c r="W7" s="9">
+      <c r="AA7" s="9">
         <v>1043.5999999999999</v>
       </c>
-      <c r="X7" s="9">
+      <c r="AB7" s="9">
         <v>422.44369999999998</v>
       </c>
-      <c r="Y7" s="9">
+      <c r="AC7" s="9">
         <v>167.3366</v>
       </c>
-      <c r="Z7" s="9">
+      <c r="AD7" s="9">
         <v>-73.13</v>
       </c>
-      <c r="AA7" s="9">
+      <c r="AE7" s="9">
         <v>-81.25</v>
       </c>
-      <c r="AB7" s="9">
+      <c r="AF7" s="9">
         <v>-147.32</v>
       </c>
-      <c r="AC7" s="9">
+      <c r="AG7" s="9">
         <v>-1287.3599999999999</v>
       </c>
-      <c r="AD7" s="10">
+      <c r="AH7" s="10">
         <v>5</v>
       </c>
-      <c r="AE7" s="9">
+      <c r="AI7" s="9">
         <v>630.94680919999996</v>
       </c>
-      <c r="AF7" s="10">
+      <c r="AJ7" s="10">
         <v>288</v>
       </c>
-      <c r="AG7" s="1" t="str">
+      <c r="AK7" s="1" t="str">
+        <f>IF(I7&lt;Y7, "Abicare", "DST")</f>
+        <v>DST</v>
+      </c>
+      <c r="AL7" s="1" t="str">
+        <f>IF(J7&lt;Z7, "Abicare", "DST")</f>
+        <v>DST</v>
+      </c>
+      <c r="AM7" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>DST</v>
+      </c>
+      <c r="AN7" s="1" t="str">
         <f t="shared" si="0"/>
         <v>DST</v>
       </c>
-      <c r="AH7" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>DST</v>
-      </c>
-      <c r="AI7" s="1" t="str">
+      <c r="AO7" s="1" t="str">
         <f t="shared" si="3"/>
         <v>DST</v>
       </c>
-      <c r="AJ7" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>DST</v>
-      </c>
-      <c r="AK7" s="1" t="str">
+      <c r="AP7" s="8">
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="1" t="str">
         <f t="shared" si="4"/>
         <v>DST</v>
       </c>
-      <c r="AL7" s="8">
-        <v>0</v>
-      </c>
-      <c r="AM7" s="1" t="str">
+      <c r="AR7" s="1" t="str">
         <f t="shared" si="5"/>
         <v>DST</v>
       </c>
-      <c r="AN7" s="1" t="str">
+      <c r="AS7" s="1" t="str">
         <f t="shared" si="6"/>
         <v>DST</v>
       </c>
-      <c r="AO7" s="1" t="str">
+      <c r="AT7" s="1" t="str">
         <f t="shared" si="7"/>
         <v>DST</v>
       </c>
-      <c r="AP7" s="1" t="str">
+      <c r="AU7" s="1" t="str">
         <f t="shared" si="8"/>
         <v>DST</v>
       </c>
-      <c r="AQ7" s="1" t="str">
+      <c r="AV7" s="1" t="str">
         <f t="shared" si="9"/>
         <v>DST</v>
       </c>
-      <c r="AR7" s="1" t="str">
+      <c r="AW7" s="1" t="str">
         <f t="shared" si="10"/>
         <v>DST</v>
       </c>
-    </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AX7" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>DST</v>
+      </c>
+      <c r="AY7" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>DST</v>
+      </c>
+      <c r="AZ7" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>DST</v>
+      </c>
+    </row>
+    <row r="8" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <v>44142</v>
       </c>
@@ -2068,7 +2255,7 @@
         <v>957.33299999999997</v>
       </c>
       <c r="M8" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1053.172</v>
       </c>
       <c r="N8" s="9">
@@ -2093,90 +2280,118 @@
         <v>-1410</v>
       </c>
       <c r="U8" s="9">
+        <v>-107.048</v>
+      </c>
+      <c r="V8" s="9">
+        <v>-118.943</v>
+      </c>
+      <c r="W8" s="9">
+        <v>-183.54900000000001</v>
+      </c>
+      <c r="X8" s="9">
+        <v>-1410</v>
+      </c>
+      <c r="Y8" s="9">
         <v>3616.35</v>
       </c>
-      <c r="V8" s="9">
+      <c r="Z8" s="9">
         <v>243.81</v>
       </c>
-      <c r="W8" s="9">
+      <c r="AA8" s="9">
         <v>1002.54</v>
       </c>
-      <c r="X8" s="9">
+      <c r="AB8" s="9">
         <v>364.12990000000002</v>
       </c>
-      <c r="Y8" s="9">
+      <c r="AC8" s="9">
         <v>176.95259999999999</v>
       </c>
-      <c r="Z8" s="9">
+      <c r="AD8" s="9">
         <v>-73.14</v>
       </c>
-      <c r="AA8" s="9">
+      <c r="AE8" s="9">
         <v>-81.27</v>
       </c>
-      <c r="AB8" s="9">
+      <c r="AF8" s="9">
         <v>-147.01</v>
       </c>
-      <c r="AC8" s="9">
+      <c r="AG8" s="9">
         <v>-1246.3499999999999</v>
       </c>
-      <c r="AD8" s="10">
+      <c r="AH8" s="10">
         <v>5</v>
       </c>
-      <c r="AE8" s="9">
+      <c r="AI8" s="9">
         <v>623.01187159999995</v>
       </c>
-      <c r="AF8" s="10">
+      <c r="AJ8" s="10">
         <v>709</v>
       </c>
-      <c r="AG8" s="1" t="str">
+      <c r="AK8" s="1" t="str">
+        <f>IF(I8&lt;Y8, "Abicare", "DST")</f>
+        <v>DST</v>
+      </c>
+      <c r="AL8" s="1" t="str">
+        <f>IF(J8&lt;Z8, "Abicare", "DST")</f>
+        <v>DST</v>
+      </c>
+      <c r="AM8" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>DST</v>
+      </c>
+      <c r="AN8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>DST</v>
-      </c>
-      <c r="AH8" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>DST</v>
-      </c>
-      <c r="AI8" s="1" t="str">
+        <v>Abicare</v>
+      </c>
+      <c r="AO8" s="1" t="str">
         <f t="shared" si="3"/>
         <v>DST</v>
       </c>
-      <c r="AJ8" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Abicare</v>
-      </c>
-      <c r="AK8" s="1" t="str">
+      <c r="AP8" s="8">
+        <v>0</v>
+      </c>
+      <c r="AQ8" s="1" t="str">
         <f t="shared" si="4"/>
         <v>DST</v>
       </c>
-      <c r="AL8" s="8">
-        <v>0</v>
-      </c>
-      <c r="AM8" s="1" t="str">
+      <c r="AR8" s="1" t="str">
         <f t="shared" si="5"/>
         <v>DST</v>
       </c>
-      <c r="AN8" s="1" t="str">
+      <c r="AS8" s="1" t="str">
         <f t="shared" si="6"/>
         <v>DST</v>
       </c>
-      <c r="AO8" s="1" t="str">
+      <c r="AT8" s="1" t="str">
         <f t="shared" si="7"/>
         <v>DST</v>
       </c>
-      <c r="AP8" s="1" t="str">
+      <c r="AU8" s="1" t="str">
         <f t="shared" si="8"/>
         <v>DST</v>
       </c>
-      <c r="AQ8" s="1" t="str">
+      <c r="AV8" s="1" t="str">
         <f t="shared" si="9"/>
         <v>DST</v>
       </c>
-      <c r="AR8" s="1" t="str">
+      <c r="AW8" s="1" t="str">
         <f t="shared" si="10"/>
         <v>DST</v>
       </c>
-    </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AX8" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>DST</v>
+      </c>
+      <c r="AY8" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>DST</v>
+      </c>
+      <c r="AZ8" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>DST</v>
+      </c>
+    </row>
+    <row r="9" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>44143</v>
       </c>
@@ -2208,7 +2423,7 @@
         <v>1019.59</v>
       </c>
       <c r="M9" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1100.277</v>
       </c>
       <c r="N9" s="9">
@@ -2233,90 +2448,118 @@
         <v>-1425</v>
       </c>
       <c r="U9" s="9">
+        <v>-97.417000000000002</v>
+      </c>
+      <c r="V9" s="9">
+        <v>-108.241</v>
+      </c>
+      <c r="W9" s="9">
+        <v>-166.417</v>
+      </c>
+      <c r="X9" s="9">
+        <v>-1425</v>
+      </c>
+      <c r="Y9" s="9">
         <v>3608.01</v>
       </c>
-      <c r="V9" s="9">
+      <c r="Z9" s="9">
         <v>223.68</v>
       </c>
-      <c r="W9" s="9">
+      <c r="AA9" s="9">
         <v>1089.32</v>
       </c>
-      <c r="X9" s="9">
+      <c r="AB9" s="9">
         <v>356.12670000000003</v>
       </c>
-      <c r="Y9" s="9">
+      <c r="AC9" s="9">
         <v>160.10290000000001</v>
       </c>
-      <c r="Z9" s="9">
+      <c r="AD9" s="9">
         <v>-67.099999999999994</v>
       </c>
-      <c r="AA9" s="9">
+      <c r="AE9" s="9">
         <v>-74.56</v>
       </c>
-      <c r="AB9" s="9">
+      <c r="AF9" s="9">
         <v>-135.63</v>
       </c>
-      <c r="AC9" s="9">
+      <c r="AG9" s="9">
         <v>-1313</v>
       </c>
-      <c r="AD9" s="10">
+      <c r="AH9" s="10">
         <v>5</v>
       </c>
-      <c r="AE9" s="9">
+      <c r="AI9" s="9">
         <v>622.5730016</v>
       </c>
-      <c r="AF9" s="10">
+      <c r="AJ9" s="10">
         <v>664</v>
       </c>
-      <c r="AG9" s="1" t="str">
+      <c r="AK9" s="1" t="str">
+        <f>IF(I9&lt;Y9, "Abicare", "DST")</f>
+        <v>DST</v>
+      </c>
+      <c r="AL9" s="1" t="str">
+        <f>IF(J9&lt;Z9, "Abicare", "DST")</f>
+        <v>DST</v>
+      </c>
+      <c r="AM9" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>DST</v>
+      </c>
+      <c r="AN9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>DST</v>
-      </c>
-      <c r="AH9" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>DST</v>
-      </c>
-      <c r="AI9" s="1" t="str">
+        <v>Abicare</v>
+      </c>
+      <c r="AO9" s="1" t="str">
         <f t="shared" si="3"/>
         <v>DST</v>
       </c>
-      <c r="AJ9" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Abicare</v>
-      </c>
-      <c r="AK9" s="1" t="str">
+      <c r="AP9" s="8">
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="1" t="str">
         <f t="shared" si="4"/>
         <v>DST</v>
       </c>
-      <c r="AL9" s="8">
-        <v>0</v>
-      </c>
-      <c r="AM9" s="1" t="str">
+      <c r="AR9" s="1" t="str">
         <f t="shared" si="5"/>
         <v>DST</v>
       </c>
-      <c r="AN9" s="1" t="str">
+      <c r="AS9" s="1" t="str">
         <f t="shared" si="6"/>
         <v>DST</v>
       </c>
-      <c r="AO9" s="1" t="str">
+      <c r="AT9" s="1" t="str">
         <f t="shared" si="7"/>
         <v>DST</v>
       </c>
-      <c r="AP9" s="1" t="str">
+      <c r="AU9" s="1" t="str">
         <f t="shared" si="8"/>
         <v>DST</v>
       </c>
-      <c r="AQ9" s="1" t="str">
+      <c r="AV9" s="1" t="str">
         <f t="shared" si="9"/>
         <v>DST</v>
       </c>
-      <c r="AR9" s="1" t="str">
+      <c r="AW9" s="1" t="str">
         <f t="shared" si="10"/>
         <v>DST</v>
       </c>
-    </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AX9" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>DST</v>
+      </c>
+      <c r="AY9" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>DST</v>
+      </c>
+      <c r="AZ9" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>DST</v>
+      </c>
+    </row>
+    <row r="10" spans="1:52" x14ac:dyDescent="0.2">
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
@@ -2337,20 +2580,24 @@
       <c r="AA10" s="9"/>
       <c r="AB10" s="9"/>
       <c r="AC10" s="9"/>
-      <c r="AD10" s="10"/>
-      <c r="AE10" s="10"/>
-      <c r="AF10" s="10"/>
-      <c r="AG10" s="10"/>
+      <c r="AD10" s="9"/>
+      <c r="AE10" s="9"/>
+      <c r="AF10" s="9"/>
+      <c r="AG10" s="9"/>
       <c r="AH10" s="10"/>
       <c r="AI10" s="10"/>
       <c r="AJ10" s="10"/>
       <c r="AK10" s="10"/>
-      <c r="AL10" s="17"/>
+      <c r="AL10" s="10"/>
       <c r="AM10" s="10"/>
       <c r="AN10" s="10"/>
       <c r="AO10" s="10"/>
-    </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AP10" s="17"/>
+      <c r="AQ10" s="10"/>
+      <c r="AR10" s="10"/>
+      <c r="AS10" s="10"/>
+    </row>
+    <row r="11" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -2375,20 +2622,24 @@
       <c r="AA11" s="9"/>
       <c r="AB11" s="9"/>
       <c r="AC11" s="9"/>
-      <c r="AD11" s="10"/>
-      <c r="AE11" s="10"/>
-      <c r="AF11" s="10"/>
-      <c r="AG11" s="10"/>
+      <c r="AD11" s="9"/>
+      <c r="AE11" s="9"/>
+      <c r="AF11" s="9"/>
+      <c r="AG11" s="9"/>
       <c r="AH11" s="10"/>
       <c r="AI11" s="10"/>
       <c r="AJ11" s="10"/>
       <c r="AK11" s="10"/>
-      <c r="AL11" s="17"/>
+      <c r="AL11" s="10"/>
       <c r="AM11" s="10"/>
       <c r="AN11" s="10"/>
       <c r="AO11" s="10"/>
-    </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AP11" s="17"/>
+      <c r="AQ11" s="10"/>
+      <c r="AR11" s="10"/>
+      <c r="AS11" s="10"/>
+    </row>
+    <row r="12" spans="1:52" x14ac:dyDescent="0.2">
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
@@ -2402,10 +2653,10 @@
       <c r="T12" s="9"/>
       <c r="U12" s="9"/>
       <c r="V12" s="9"/>
-      <c r="W12" s="10"/>
-      <c r="X12" s="10"/>
-      <c r="Y12" s="10"/>
-      <c r="Z12" s="10"/>
+      <c r="W12" s="9"/>
+      <c r="X12" s="9"/>
+      <c r="Y12" s="9"/>
+      <c r="Z12" s="9"/>
       <c r="AA12" s="10"/>
       <c r="AB12" s="10"/>
       <c r="AC12" s="10"/>
@@ -2417,12 +2668,16 @@
       <c r="AI12" s="10"/>
       <c r="AJ12" s="10"/>
       <c r="AK12" s="10"/>
-      <c r="AL12" s="17"/>
+      <c r="AL12" s="10"/>
       <c r="AM12" s="10"/>
       <c r="AN12" s="10"/>
       <c r="AO12" s="10"/>
-    </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AP12" s="17"/>
+      <c r="AQ12" s="10"/>
+      <c r="AR12" s="10"/>
+      <c r="AS12" s="10"/>
+    </row>
+    <row r="13" spans="1:52" x14ac:dyDescent="0.2">
       <c r="J13" s="10"/>
       <c r="K13" s="10"/>
       <c r="L13" s="10"/>
@@ -2436,10 +2691,10 @@
       <c r="T13" s="9"/>
       <c r="U13" s="9"/>
       <c r="V13" s="9"/>
-      <c r="W13" s="10"/>
-      <c r="X13" s="10"/>
-      <c r="Y13" s="10"/>
-      <c r="Z13" s="10"/>
+      <c r="W13" s="9"/>
+      <c r="X13" s="9"/>
+      <c r="Y13" s="9"/>
+      <c r="Z13" s="9"/>
       <c r="AA13" s="10"/>
       <c r="AB13" s="10"/>
       <c r="AC13" s="10"/>
@@ -2455,19 +2710,23 @@
       <c r="AM13" s="10"/>
       <c r="AN13" s="10"/>
       <c r="AO13" s="10"/>
-    </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AP13" s="10"/>
+      <c r="AQ13" s="10"/>
+      <c r="AR13" s="10"/>
+      <c r="AS13" s="10"/>
+    </row>
+    <row r="14" spans="1:52" x14ac:dyDescent="0.2">
       <c r="M14" s="16"/>
       <c r="Q14" s="11"/>
       <c r="R14" s="12"/>
       <c r="S14" s="12"/>
     </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:52" x14ac:dyDescent="0.2">
       <c r="Q15" s="11"/>
       <c r="R15" s="12"/>
       <c r="S15" s="12"/>
     </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -6259,11 +6518,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1977999D-E23E-4C98-A23D-154E3F09823B}">
-  <dimension ref="A1:AR767"/>
+  <dimension ref="A1:AZ767"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="W9" sqref="W9"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6281,28 +6539,28 @@
     <col min="12" max="16" width="8.28515625" style="2" customWidth="1"/>
     <col min="17" max="17" width="9.140625" style="2" customWidth="1"/>
     <col min="18" max="18" width="8.7109375" style="2" customWidth="1"/>
-    <col min="19" max="20" width="8.42578125" style="2" customWidth="1"/>
-    <col min="21" max="21" width="8.85546875" style="2" customWidth="1"/>
-    <col min="22" max="22" width="8" style="2" customWidth="1"/>
-    <col min="23" max="25" width="8.5703125" style="2" customWidth="1"/>
-    <col min="26" max="26" width="10.5703125" style="2" customWidth="1"/>
-    <col min="27" max="27" width="8.28515625" style="2" customWidth="1"/>
-    <col min="28" max="28" width="11" style="2" customWidth="1"/>
-    <col min="29" max="29" width="9.7109375" style="2" customWidth="1"/>
-    <col min="30" max="30" width="6.42578125" style="2" customWidth="1"/>
-    <col min="31" max="31" width="7.7109375" style="2" customWidth="1"/>
-    <col min="32" max="32" width="8.85546875" style="2" customWidth="1"/>
+    <col min="19" max="24" width="8.42578125" style="2" customWidth="1"/>
+    <col min="25" max="25" width="8.85546875" style="2" customWidth="1"/>
+    <col min="26" max="26" width="8" style="2" customWidth="1"/>
+    <col min="27" max="29" width="8.5703125" style="2" customWidth="1"/>
+    <col min="30" max="30" width="10.5703125" style="2" customWidth="1"/>
+    <col min="31" max="31" width="8.28515625" style="2" customWidth="1"/>
+    <col min="32" max="32" width="11" style="2" customWidth="1"/>
     <col min="33" max="33" width="9.7109375" style="2" customWidth="1"/>
-    <col min="34" max="35" width="8.85546875" style="2" customWidth="1"/>
-    <col min="36" max="40" width="8.28515625" style="2" customWidth="1"/>
-    <col min="41" max="41" width="10.140625" style="2" customWidth="1"/>
-    <col min="42" max="42" width="9.85546875" style="2" customWidth="1"/>
-    <col min="43" max="43" width="9.7109375" style="2" customWidth="1"/>
-    <col min="44" max="44" width="10" style="2" customWidth="1"/>
-    <col min="45" max="16384" width="10.7109375" style="2"/>
+    <col min="34" max="34" width="6.42578125" style="2" customWidth="1"/>
+    <col min="35" max="35" width="7.7109375" style="2" customWidth="1"/>
+    <col min="36" max="36" width="8.85546875" style="2" customWidth="1"/>
+    <col min="37" max="37" width="9.7109375" style="2" customWidth="1"/>
+    <col min="38" max="39" width="8.85546875" style="2" customWidth="1"/>
+    <col min="40" max="44" width="8.28515625" style="2" customWidth="1"/>
+    <col min="45" max="45" width="10.140625" style="2" customWidth="1"/>
+    <col min="46" max="46" width="9.85546875" style="2" customWidth="1"/>
+    <col min="47" max="47" width="9.7109375" style="2" customWidth="1"/>
+    <col min="48" max="48" width="10" style="2" customWidth="1"/>
+    <col min="49" max="16384" width="10.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -6318,14 +6576,14 @@
       <c r="I1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:44" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:52" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
@@ -6386,80 +6644,104 @@
       <c r="T2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="U2" s="5" t="s">
+      <c r="U2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="V2" s="5" t="s">
+      <c r="Z2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="W2" s="5" t="s">
+      <c r="AA2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="X2" s="5" t="s">
+      <c r="AB2" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="Y2" s="5" t="s">
+      <c r="AC2" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="Z2" s="5" t="s">
+      <c r="AD2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="AA2" s="5" t="s">
+      <c r="AE2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="AB2" s="5" t="s">
+      <c r="AF2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="AC2" s="5" t="s">
+      <c r="AG2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="AD2" s="5" t="s">
+      <c r="AH2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="AE2" s="5" t="s">
+      <c r="AI2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AF2" s="5" t="s">
+      <c r="AJ2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="AG2" s="6" t="s">
+      <c r="AK2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="AH2" s="6" t="s">
+      <c r="AL2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="AI2" s="6" t="s">
+      <c r="AM2" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AJ2" s="6" t="s">
+      <c r="AN2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="AK2" s="6" t="s">
+      <c r="AO2" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AL2" s="6" t="s">
+      <c r="AP2" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="AM2" s="6" t="s">
+      <c r="AQ2" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="AN2" s="6" t="s">
+      <c r="AR2" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="AO2" s="6" t="s">
+      <c r="AS2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="AP2" s="6" t="s">
+      <c r="AT2" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="AQ2" s="6" t="s">
+      <c r="AU2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="AR2" s="6" t="s">
+      <c r="AV2" s="6" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AW2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AX2" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AY2" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ2" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <v>44137</v>
       </c>
@@ -6522,90 +6804,118 @@
         <v>-2130</v>
       </c>
       <c r="U3" s="9">
+        <v>-202.33799999999999</v>
+      </c>
+      <c r="V3" s="9">
+        <v>-224.821</v>
+      </c>
+      <c r="W3" s="9">
+        <v>-289.33800000000002</v>
+      </c>
+      <c r="X3" s="9">
+        <v>-2130</v>
+      </c>
+      <c r="Y3" s="9">
         <v>5851.16</v>
       </c>
-      <c r="V3" s="9">
+      <c r="Z3" s="9">
         <v>687</v>
       </c>
-      <c r="W3" s="9">
+      <c r="AA3" s="9">
         <v>1009.16</v>
       </c>
-      <c r="X3" s="9">
+      <c r="AB3" s="9">
         <v>1166.9715000000001</v>
       </c>
-      <c r="Y3" s="9">
+      <c r="AC3" s="9">
         <v>569.09</v>
       </c>
-      <c r="Z3" s="9">
+      <c r="AD3" s="9">
         <v>-65422.77</v>
       </c>
-      <c r="AA3" s="9">
+      <c r="AE3" s="9">
         <v>-230.84</v>
       </c>
-      <c r="AB3" s="9">
+      <c r="AF3" s="9">
         <v>-65512.77</v>
       </c>
-      <c r="AC3" s="9">
+      <c r="AG3" s="9">
         <v>-1723.77</v>
       </c>
-      <c r="AD3" s="10">
+      <c r="AH3" s="10">
         <v>5</v>
       </c>
-      <c r="AE3" s="9">
+      <c r="AI3" s="9">
         <v>670.29817439999999</v>
       </c>
-      <c r="AF3" s="10">
+      <c r="AJ3" s="10">
         <v>61</v>
       </c>
-      <c r="AG3" s="1" t="str">
-        <f t="shared" ref="AG3:AH9" si="0">IF(I3&lt;U3, "Abicare", "DST")</f>
-        <v>DST</v>
-      </c>
-      <c r="AH3" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>DST</v>
-      </c>
-      <c r="AI3" s="1" t="str">
-        <f>IF(K3&lt;V3, "Abicare","DST")</f>
+      <c r="AK3" s="1" t="str">
+        <f>IF(I3&lt;Y3, "Abicare", "DST")</f>
+        <v>DST</v>
+      </c>
+      <c r="AL3" s="1" t="str">
+        <f>IF(J3&lt;Z3, "Abicare", "DST")</f>
+        <v>DST</v>
+      </c>
+      <c r="AM3" s="1" t="str">
+        <f>IF(K3&lt;Z3, "AbiOSRM","DST")</f>
+        <v>AbiOSRM</v>
+      </c>
+      <c r="AN3" s="1" t="str">
+        <f t="shared" ref="AN3:AN9" si="0">IF(L3&lt;AA3, "Abicare", "DST")</f>
+        <v>DST</v>
+      </c>
+      <c r="AO3" s="1" t="str">
+        <f>IF(M3&lt;AA3, "AbiOSRM", "DST")</f>
+        <v>DST</v>
+      </c>
+      <c r="AP3" s="8">
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="1" t="str">
+        <f>IF(O3&lt;AC3, "Abicare","DST")</f>
         <v>Abicare</v>
       </c>
-      <c r="AJ3" s="1" t="str">
-        <f t="shared" ref="AJ3:AJ9" si="1">IF(L3&lt;W3, "Abicare", "DST")</f>
-        <v>DST</v>
-      </c>
-      <c r="AK3" s="1" t="str">
-        <f>IF(M3&lt;W3, "Abicare", "DST")</f>
-        <v>DST</v>
-      </c>
-      <c r="AL3" s="8">
-        <v>0</v>
-      </c>
-      <c r="AM3" s="1" t="str">
-        <f>IF(O3&lt;Y3, "Abicare","DST")</f>
+      <c r="AR3" s="1" t="str">
+        <f>IF(P3&lt;AC3, "AbiOSRM", "DST")</f>
+        <v>AbiOSRM</v>
+      </c>
+      <c r="AS3" s="1" t="str">
+        <f>IF(Q3&gt;AD3,"Abicare","DST")</f>
         <v>Abicare</v>
       </c>
-      <c r="AN3" s="1" t="str">
-        <f>IF(P3&lt;Y3, "Abicare", "DST")</f>
+      <c r="AT3" s="1" t="str">
+        <f>IF(R3&gt;AE3, "Abicare", "DST")</f>
+        <v>DST</v>
+      </c>
+      <c r="AU3" s="1" t="str">
+        <f>IF(S3&gt;AF3, "Abicare", "DST")</f>
         <v>Abicare</v>
       </c>
-      <c r="AO3" s="1" t="str">
-        <f>IF(Q3&gt;Z3,"Abicare","DST")</f>
-        <v>Abicare</v>
-      </c>
-      <c r="AP3" s="1" t="str">
-        <f t="shared" ref="AP3:AR9" si="2">IF(R3&gt;AA3, "Abicare", "DST")</f>
-        <v>DST</v>
-      </c>
-      <c r="AQ3" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Abicare</v>
-      </c>
-      <c r="AR3" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>DST</v>
-      </c>
-    </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AV3" s="1" t="str">
+        <f>IF(T3&gt;AG3, "Abicare", "DST")</f>
+        <v>DST</v>
+      </c>
+      <c r="AW3" s="1" t="str">
+        <f>IF(U3&gt;AD3, "AbiOSRM", "DST")</f>
+        <v>AbiOSRM</v>
+      </c>
+      <c r="AX3" s="1" t="str">
+        <f>IF(V3&gt;AE3, "AbiOSRM", "DST")</f>
+        <v>AbiOSRM</v>
+      </c>
+      <c r="AY3" s="1" t="str">
+        <f>IF(W3&gt;AF3, "AbiOSRM", "DST")</f>
+        <v>AbiOSRM</v>
+      </c>
+      <c r="AZ3" s="1" t="str">
+        <f>IF(X3&gt;AG3, "AbiOSRM", "DST")</f>
+        <v>DST</v>
+      </c>
+    </row>
+    <row r="4" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>44138</v>
       </c>
@@ -6634,7 +6944,7 @@
         <v>1026.3800000000001</v>
       </c>
       <c r="M4" s="9">
-        <f t="shared" ref="M4:M9" si="3">I4-H4-K4</f>
+        <f t="shared" ref="M4:M9" si="1">I4-H4-K4</f>
         <v>1079.1100000000001</v>
       </c>
       <c r="N4" s="9">
@@ -6659,90 +6969,118 @@
         <v>-1755</v>
       </c>
       <c r="U4" s="9">
+        <v>-202.767</v>
+      </c>
+      <c r="V4" s="9">
+        <v>-225.297</v>
+      </c>
+      <c r="W4" s="9">
+        <v>-277.767</v>
+      </c>
+      <c r="X4" s="9">
+        <v>-1755</v>
+      </c>
+      <c r="Y4" s="9">
         <v>5758.7</v>
       </c>
-      <c r="V4" s="9">
+      <c r="Z4" s="9">
         <v>745.88</v>
       </c>
-      <c r="W4" s="9">
+      <c r="AA4" s="9">
         <v>737.81</v>
       </c>
-      <c r="X4" s="9">
+      <c r="AB4" s="9">
         <v>1293.8867</v>
       </c>
-      <c r="Y4" s="9">
+      <c r="AC4" s="9">
         <v>662.54790000000003</v>
       </c>
-      <c r="Z4" s="9">
+      <c r="AD4" s="9">
         <v>-533990.43000000005</v>
       </c>
-      <c r="AA4" s="9">
+      <c r="AE4" s="9">
         <v>-265.82</v>
       </c>
-      <c r="AB4" s="9">
+      <c r="AF4" s="9">
         <v>-534066.74</v>
       </c>
-      <c r="AC4" s="9">
+      <c r="AG4" s="9">
         <v>-1745.58</v>
       </c>
-      <c r="AD4" s="10">
+      <c r="AH4" s="10">
         <v>5</v>
       </c>
-      <c r="AE4" s="9">
+      <c r="AI4" s="9">
         <v>688.76248099999998</v>
       </c>
-      <c r="AF4" s="10">
+      <c r="AJ4" s="10">
         <v>57</v>
       </c>
-      <c r="AG4" s="1" t="str">
+      <c r="AK4" s="1" t="str">
+        <f>IF(I4&lt;Y4, "Abicare", "DST")</f>
+        <v>DST</v>
+      </c>
+      <c r="AL4" s="1" t="str">
+        <f>IF(J4&lt;Z4, "Abicare", "DST")</f>
+        <v>Abicare</v>
+      </c>
+      <c r="AM4" s="1" t="str">
+        <f t="shared" ref="AM4:AM9" si="2">IF(K4&lt;Z4, "AbiOSRM","DST")</f>
+        <v>AbiOSRM</v>
+      </c>
+      <c r="AN4" s="1" t="str">
         <f t="shared" si="0"/>
         <v>DST</v>
       </c>
-      <c r="AH4" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="AO4" s="1" t="str">
+        <f t="shared" ref="AO4:AO9" si="3">IF(M4&lt;AA4, "AbiOSRM", "DST")</f>
+        <v>DST</v>
+      </c>
+      <c r="AP4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="1" t="str">
+        <f t="shared" ref="AQ4:AQ9" si="4">IF(O4&lt;AC4, "Abicare","DST")</f>
         <v>Abicare</v>
       </c>
-      <c r="AI4" s="1" t="str">
-        <f t="shared" ref="AI4:AI9" si="4">IF(K4&lt;V4, "Abicare","DST")</f>
+      <c r="AR4" s="1" t="str">
+        <f t="shared" ref="AR4:AR9" si="5">IF(P4&lt;AC4, "AbiOSRM", "DST")</f>
+        <v>AbiOSRM</v>
+      </c>
+      <c r="AS4" s="1" t="str">
+        <f t="shared" ref="AS4:AS9" si="6">IF(Q4&gt;AD4,"Abicare","DST")</f>
         <v>Abicare</v>
       </c>
-      <c r="AJ4" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>DST</v>
-      </c>
-      <c r="AK4" s="1" t="str">
-        <f t="shared" ref="AK4:AK9" si="5">IF(M4&lt;W4, "Abicare", "DST")</f>
-        <v>DST</v>
-      </c>
-      <c r="AL4" s="8">
-        <v>0</v>
-      </c>
-      <c r="AM4" s="1" t="str">
-        <f t="shared" ref="AM4:AM9" si="6">IF(O4&lt;Y4, "Abicare","DST")</f>
+      <c r="AT4" s="1" t="str">
+        <f>IF(R4&gt;AE4, "Abicare", "DST")</f>
         <v>Abicare</v>
       </c>
-      <c r="AN4" s="1" t="str">
-        <f t="shared" ref="AN4:AN9" si="7">IF(P4&lt;Y4, "Abicare", "DST")</f>
+      <c r="AU4" s="1" t="str">
+        <f>IF(S4&gt;AF4, "Abicare", "DST")</f>
         <v>Abicare</v>
       </c>
-      <c r="AO4" s="1" t="str">
-        <f t="shared" ref="AO4:AO9" si="8">IF(Q4&gt;Z4,"Abicare","DST")</f>
-        <v>Abicare</v>
-      </c>
-      <c r="AP4" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Abicare</v>
-      </c>
-      <c r="AQ4" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Abicare</v>
-      </c>
-      <c r="AR4" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>DST</v>
-      </c>
-    </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AV4" s="1" t="str">
+        <f>IF(T4&gt;AG4, "Abicare", "DST")</f>
+        <v>DST</v>
+      </c>
+      <c r="AW4" s="1" t="str">
+        <f t="shared" ref="AW4:AZ9" si="7">IF(U4&gt;AD4, "AbiOSRM", "DST")</f>
+        <v>AbiOSRM</v>
+      </c>
+      <c r="AX4" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>AbiOSRM</v>
+      </c>
+      <c r="AY4" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>AbiOSRM</v>
+      </c>
+      <c r="AZ4" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>DST</v>
+      </c>
+    </row>
+    <row r="5" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>44139</v>
       </c>
@@ -6771,7 +7109,7 @@
         <v>775.21659999999997</v>
       </c>
       <c r="M5" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>822.58299999999997</v>
       </c>
       <c r="N5" s="9">
@@ -6796,90 +7134,118 @@
         <v>-1545</v>
       </c>
       <c r="U5" s="9">
+        <v>-216.72499999999999</v>
+      </c>
+      <c r="V5" s="9">
+        <v>-240.80600000000001</v>
+      </c>
+      <c r="W5" s="9">
+        <v>-305.22500000000002</v>
+      </c>
+      <c r="X5" s="9">
+        <v>-1545</v>
+      </c>
+      <c r="Y5" s="9">
         <v>6044.82</v>
       </c>
-      <c r="V5" s="9">
+      <c r="Z5" s="9">
         <v>895.18</v>
       </c>
-      <c r="W5" s="9">
+      <c r="AA5" s="9">
         <v>559.64</v>
       </c>
-      <c r="X5" s="9">
+      <c r="AB5" s="9">
         <v>1452.1433</v>
       </c>
-      <c r="Y5" s="9">
+      <c r="AC5" s="9">
         <v>822.69849999999997</v>
       </c>
-      <c r="Z5" s="9">
+      <c r="AD5" s="9">
         <v>-467801.89</v>
       </c>
-      <c r="AA5" s="9">
+      <c r="AE5" s="9">
         <v>-313.31</v>
       </c>
-      <c r="AB5" s="9">
+      <c r="AF5" s="9">
         <v>-467891.16</v>
       </c>
-      <c r="AC5" s="9">
+      <c r="AG5" s="9">
         <v>-1683.58</v>
       </c>
-      <c r="AD5" s="10">
+      <c r="AH5" s="10">
         <v>5</v>
       </c>
-      <c r="AE5" s="9">
+      <c r="AI5" s="9">
         <v>686.739779</v>
       </c>
-      <c r="AF5" s="10">
+      <c r="AJ5" s="10">
         <v>46</v>
       </c>
-      <c r="AG5" s="1" t="str">
+      <c r="AK5" s="1" t="str">
+        <f>IF(I5&lt;Y5, "Abicare", "DST")</f>
+        <v>DST</v>
+      </c>
+      <c r="AL5" s="1" t="str">
+        <f>IF(J5&lt;Z5, "Abicare", "DST")</f>
+        <v>Abicare</v>
+      </c>
+      <c r="AM5" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>AbiOSRM</v>
+      </c>
+      <c r="AN5" s="1" t="str">
         <f t="shared" si="0"/>
         <v>DST</v>
       </c>
-      <c r="AH5" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Abicare</v>
-      </c>
-      <c r="AI5" s="1" t="str">
+      <c r="AO5" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>DST</v>
+      </c>
+      <c r="AP5" s="8">
+        <v>0</v>
+      </c>
+      <c r="AQ5" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Abicare</v>
       </c>
-      <c r="AJ5" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>DST</v>
-      </c>
-      <c r="AK5" s="1" t="str">
+      <c r="AR5" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>DST</v>
-      </c>
-      <c r="AL5" s="8">
-        <v>0</v>
-      </c>
-      <c r="AM5" s="1" t="str">
+        <v>AbiOSRM</v>
+      </c>
+      <c r="AS5" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Abicare</v>
       </c>
-      <c r="AN5" s="1" t="str">
+      <c r="AT5" s="1" t="str">
+        <f>IF(R5&gt;AE5, "Abicare", "DST")</f>
+        <v>Abicare</v>
+      </c>
+      <c r="AU5" s="1" t="str">
+        <f>IF(S5&gt;AF5, "Abicare", "DST")</f>
+        <v>Abicare</v>
+      </c>
+      <c r="AV5" s="1" t="str">
+        <f>IF(T5&gt;AG5, "Abicare", "DST")</f>
+        <v>Abicare</v>
+      </c>
+      <c r="AW5" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>Abicare</v>
-      </c>
-      <c r="AO5" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>Abicare</v>
-      </c>
-      <c r="AP5" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Abicare</v>
-      </c>
-      <c r="AQ5" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Abicare</v>
-      </c>
-      <c r="AR5" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Abicare</v>
-      </c>
-    </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.2">
+        <v>AbiOSRM</v>
+      </c>
+      <c r="AX5" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>AbiOSRM</v>
+      </c>
+      <c r="AY5" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>AbiOSRM</v>
+      </c>
+      <c r="AZ5" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>AbiOSRM</v>
+      </c>
+    </row>
+    <row r="6" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>44140</v>
       </c>
@@ -6908,7 +7274,7 @@
         <v>1661.7999</v>
       </c>
       <c r="M6" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1714.143</v>
       </c>
       <c r="N6" s="9">
@@ -6933,90 +7299,118 @@
         <v>-2459.9899999999998</v>
       </c>
       <c r="U6" s="9">
+        <v>-223.75700000000001</v>
+      </c>
+      <c r="V6" s="9">
+        <v>-248.619</v>
+      </c>
+      <c r="W6" s="9">
+        <v>-312.25700000000001</v>
+      </c>
+      <c r="X6" s="9">
+        <v>-2460</v>
+      </c>
+      <c r="Y6" s="9">
         <v>6955.46</v>
       </c>
-      <c r="V6" s="9">
+      <c r="Z6" s="9">
         <v>687.87</v>
       </c>
-      <c r="W6" s="9">
+      <c r="AA6" s="9">
         <v>1527.59</v>
       </c>
-      <c r="X6" s="9">
+      <c r="AB6" s="9">
         <v>1416.8298</v>
       </c>
-      <c r="Y6" s="9">
+      <c r="AC6" s="9">
         <v>578.19860000000006</v>
       </c>
-      <c r="Z6" s="9">
+      <c r="AD6" s="9">
         <v>-16839.689999999999</v>
       </c>
-      <c r="AA6" s="9">
+      <c r="AE6" s="9">
         <v>-229.51</v>
       </c>
-      <c r="AB6" s="9">
+      <c r="AF6" s="9">
         <v>-16928.189999999999</v>
       </c>
-      <c r="AC6" s="9">
+      <c r="AG6" s="9">
         <v>-2218.77</v>
       </c>
-      <c r="AD6" s="10">
+      <c r="AH6" s="10">
         <v>5</v>
       </c>
-      <c r="AE6" s="9">
+      <c r="AI6" s="9">
         <v>717.74900000000002</v>
       </c>
-      <c r="AF6" s="10">
+      <c r="AJ6" s="10">
         <v>35</v>
       </c>
-      <c r="AG6" s="1" t="str">
+      <c r="AK6" s="1" t="str">
+        <f>IF(I6&lt;Y6, "Abicare", "DST")</f>
+        <v>DST</v>
+      </c>
+      <c r="AL6" s="1" t="str">
+        <f>IF(J6&lt;Z6, "Abicare", "DST")</f>
+        <v>DST</v>
+      </c>
+      <c r="AM6" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>DST</v>
+      </c>
+      <c r="AN6" s="1" t="str">
         <f t="shared" si="0"/>
         <v>DST</v>
       </c>
-      <c r="AH6" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>DST</v>
-      </c>
-      <c r="AI6" s="1" t="str">
+      <c r="AO6" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>DST</v>
+      </c>
+      <c r="AP6" s="8">
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>DST</v>
-      </c>
-      <c r="AJ6" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>DST</v>
-      </c>
-      <c r="AK6" s="1" t="str">
+        <v>Abicare</v>
+      </c>
+      <c r="AR6" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>DST</v>
-      </c>
-      <c r="AL6" s="8">
-        <v>0</v>
-      </c>
-      <c r="AM6" s="1" t="str">
+        <v>AbiOSRM</v>
+      </c>
+      <c r="AS6" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Abicare</v>
       </c>
-      <c r="AN6" s="1" t="str">
+      <c r="AT6" s="1" t="str">
+        <f>IF(R6&gt;AE6, "Abicare", "DST")</f>
+        <v>DST</v>
+      </c>
+      <c r="AU6" s="1" t="str">
+        <f>IF(S6&gt;AF6, "Abicare", "DST")</f>
+        <v>Abicare</v>
+      </c>
+      <c r="AV6" s="1" t="str">
+        <f>IF(T6&gt;AG6, "Abicare", "DST")</f>
+        <v>DST</v>
+      </c>
+      <c r="AW6" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>Abicare</v>
-      </c>
-      <c r="AO6" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>Abicare</v>
-      </c>
-      <c r="AP6" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>DST</v>
-      </c>
-      <c r="AQ6" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Abicare</v>
-      </c>
-      <c r="AR6" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>DST</v>
-      </c>
-    </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.2">
+        <v>AbiOSRM</v>
+      </c>
+      <c r="AX6" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>DST</v>
+      </c>
+      <c r="AY6" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>AbiOSRM</v>
+      </c>
+      <c r="AZ6" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>DST</v>
+      </c>
+    </row>
+    <row r="7" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <v>44141</v>
       </c>
@@ -7045,7 +7439,7 @@
         <v>1505.4833000000001</v>
       </c>
       <c r="M7" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1545.28</v>
       </c>
       <c r="N7" s="9">
@@ -7070,90 +7464,118 @@
         <v>-2369.9989999999998</v>
       </c>
       <c r="U7" s="9">
+        <v>-247.416</v>
+      </c>
+      <c r="V7" s="9">
+        <v>-274.90699999999998</v>
+      </c>
+      <c r="W7" s="9">
+        <v>-326.916</v>
+      </c>
+      <c r="X7" s="9">
+        <v>-2370</v>
+      </c>
+      <c r="Y7" s="9">
         <v>7100.96</v>
       </c>
-      <c r="V7" s="9">
+      <c r="Z7" s="9">
         <v>920.79</v>
       </c>
-      <c r="W7" s="9">
+      <c r="AA7" s="9">
         <v>1095.1600000000001</v>
       </c>
-      <c r="X7" s="9">
+      <c r="AB7" s="9">
         <v>1444.4348</v>
       </c>
-      <c r="Y7" s="9">
+      <c r="AC7" s="9">
         <v>831.14279999999997</v>
       </c>
-      <c r="Z7" s="9">
+      <c r="AD7" s="9">
         <v>-137059.57</v>
       </c>
-      <c r="AA7" s="9">
+      <c r="AE7" s="9">
         <v>-315.38</v>
       </c>
-      <c r="AB7" s="9">
+      <c r="AF7" s="9">
         <v>-137139.09</v>
       </c>
-      <c r="AC7" s="9">
+      <c r="AG7" s="9">
         <v>-2079.35</v>
       </c>
-      <c r="AD7" s="10">
+      <c r="AH7" s="10">
         <v>5</v>
       </c>
-      <c r="AE7" s="9">
+      <c r="AI7" s="9">
         <v>705.19914029999995</v>
       </c>
-      <c r="AF7" s="10">
+      <c r="AJ7" s="10">
         <v>38</v>
       </c>
-      <c r="AG7" s="1" t="str">
+      <c r="AK7" s="1" t="str">
+        <f>IF(I7&lt;Y7, "Abicare", "DST")</f>
+        <v>DST</v>
+      </c>
+      <c r="AL7" s="1" t="str">
+        <f>IF(J7&lt;Z7, "Abicare", "DST")</f>
+        <v>Abicare</v>
+      </c>
+      <c r="AM7" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>AbiOSRM</v>
+      </c>
+      <c r="AN7" s="1" t="str">
         <f t="shared" si="0"/>
         <v>DST</v>
       </c>
-      <c r="AH7" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Abicare</v>
-      </c>
-      <c r="AI7" s="1" t="str">
+      <c r="AO7" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>DST</v>
+      </c>
+      <c r="AP7" s="8">
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Abicare</v>
       </c>
-      <c r="AJ7" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>DST</v>
-      </c>
-      <c r="AK7" s="1" t="str">
+      <c r="AR7" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>DST</v>
-      </c>
-      <c r="AL7" s="8">
-        <v>0</v>
-      </c>
-      <c r="AM7" s="1" t="str">
+        <v>AbiOSRM</v>
+      </c>
+      <c r="AS7" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Abicare</v>
       </c>
-      <c r="AN7" s="1" t="str">
+      <c r="AT7" s="1" t="str">
+        <f>IF(R7&gt;AE7, "Abicare", "DST")</f>
+        <v>Abicare</v>
+      </c>
+      <c r="AU7" s="1" t="str">
+        <f>IF(S7&gt;AF7, "Abicare", "DST")</f>
+        <v>Abicare</v>
+      </c>
+      <c r="AV7" s="1" t="str">
+        <f>IF(T7&gt;AG7, "Abicare", "DST")</f>
+        <v>DST</v>
+      </c>
+      <c r="AW7" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>Abicare</v>
-      </c>
-      <c r="AO7" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>Abicare</v>
-      </c>
-      <c r="AP7" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Abicare</v>
-      </c>
-      <c r="AQ7" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Abicare</v>
-      </c>
-      <c r="AR7" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>DST</v>
-      </c>
-    </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.2">
+        <v>AbiOSRM</v>
+      </c>
+      <c r="AX7" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>AbiOSRM</v>
+      </c>
+      <c r="AY7" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>AbiOSRM</v>
+      </c>
+      <c r="AZ7" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>DST</v>
+      </c>
+    </row>
+    <row r="8" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <v>44142</v>
       </c>
@@ -7182,7 +7604,7 @@
         <v>790.93330000000003</v>
       </c>
       <c r="M8" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>823.50300000000004</v>
       </c>
       <c r="N8" s="9">
@@ -7207,90 +7629,118 @@
         <v>-1484.999</v>
       </c>
       <c r="U8" s="9">
+        <v>-198.44900000000001</v>
+      </c>
+      <c r="V8" s="9">
+        <v>-220.499</v>
+      </c>
+      <c r="W8" s="9">
+        <v>-264.44900000000001</v>
+      </c>
+      <c r="X8" s="9">
+        <v>-1485</v>
+      </c>
+      <c r="Y8" s="9">
         <v>4574.79</v>
       </c>
-      <c r="V8" s="9">
+      <c r="Z8" s="9">
         <v>779.27</v>
       </c>
-      <c r="W8" s="9">
+      <c r="AA8" s="9">
         <v>435.51</v>
       </c>
-      <c r="X8" s="9">
+      <c r="AB8" s="9">
         <v>1134.0248999999999</v>
       </c>
-      <c r="Y8" s="9">
+      <c r="AC8" s="9">
         <v>662.53610000000003</v>
       </c>
-      <c r="Z8" s="9">
+      <c r="AD8" s="9">
         <v>-136250.45000000001</v>
       </c>
-      <c r="AA8" s="9">
+      <c r="AE8" s="9">
         <v>-268.16000000000003</v>
       </c>
-      <c r="AB8" s="9">
+      <c r="AF8" s="9">
         <v>-136316.73000000001</v>
       </c>
-      <c r="AC8" s="9">
+      <c r="AG8" s="9">
         <v>-1277.79</v>
       </c>
-      <c r="AD8" s="10">
+      <c r="AH8" s="10">
         <v>5</v>
       </c>
-      <c r="AE8" s="9">
+      <c r="AI8" s="9">
         <v>661.16577729999995</v>
       </c>
-      <c r="AF8" s="10">
+      <c r="AJ8" s="10">
         <v>69</v>
       </c>
-      <c r="AG8" s="1" t="str">
+      <c r="AK8" s="1" t="str">
+        <f>IF(I8&lt;Y8, "Abicare", "DST")</f>
+        <v>DST</v>
+      </c>
+      <c r="AL8" s="1" t="str">
+        <f>IF(J8&lt;Z8, "Abicare", "DST")</f>
+        <v>Abicare</v>
+      </c>
+      <c r="AM8" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>AbiOSRM</v>
+      </c>
+      <c r="AN8" s="1" t="str">
         <f t="shared" si="0"/>
         <v>DST</v>
       </c>
-      <c r="AH8" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Abicare</v>
-      </c>
-      <c r="AI8" s="1" t="str">
+      <c r="AO8" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>DST</v>
+      </c>
+      <c r="AP8" s="8">
+        <v>0</v>
+      </c>
+      <c r="AQ8" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Abicare</v>
       </c>
-      <c r="AJ8" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>DST</v>
-      </c>
-      <c r="AK8" s="1" t="str">
+      <c r="AR8" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>DST</v>
-      </c>
-      <c r="AL8" s="8">
-        <v>0</v>
-      </c>
-      <c r="AM8" s="1" t="str">
+        <v>AbiOSRM</v>
+      </c>
+      <c r="AS8" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Abicare</v>
       </c>
-      <c r="AN8" s="1" t="str">
+      <c r="AT8" s="1" t="str">
+        <f>IF(R8&gt;AE8, "Abicare", "DST")</f>
+        <v>Abicare</v>
+      </c>
+      <c r="AU8" s="1" t="str">
+        <f>IF(S8&gt;AF8, "Abicare", "DST")</f>
+        <v>Abicare</v>
+      </c>
+      <c r="AV8" s="1" t="str">
+        <f>IF(T8&gt;AG8, "Abicare", "DST")</f>
+        <v>DST</v>
+      </c>
+      <c r="AW8" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>Abicare</v>
-      </c>
-      <c r="AO8" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>Abicare</v>
-      </c>
-      <c r="AP8" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Abicare</v>
-      </c>
-      <c r="AQ8" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Abicare</v>
-      </c>
-      <c r="AR8" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>DST</v>
-      </c>
-    </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.2">
+        <v>AbiOSRM</v>
+      </c>
+      <c r="AX8" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>AbiOSRM</v>
+      </c>
+      <c r="AY8" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>AbiOSRM</v>
+      </c>
+      <c r="AZ8" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>DST</v>
+      </c>
+    </row>
+    <row r="9" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>44143</v>
       </c>
@@ -7319,7 +7769,7 @@
         <v>548.83330000000001</v>
       </c>
       <c r="M9" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>578.93299999999999</v>
       </c>
       <c r="N9" s="9">
@@ -7344,90 +7794,118 @@
         <v>-1215</v>
       </c>
       <c r="U9" s="9">
+        <v>-190.82</v>
+      </c>
+      <c r="V9" s="9">
+        <v>-212.02199999999999</v>
+      </c>
+      <c r="W9" s="9">
+        <v>-240.32</v>
+      </c>
+      <c r="X9" s="9">
+        <v>-1215</v>
+      </c>
+      <c r="Y9" s="9">
         <v>4380.78</v>
       </c>
-      <c r="V9" s="9">
+      <c r="Z9" s="9">
         <v>802.96</v>
       </c>
-      <c r="W9" s="9">
+      <c r="AA9" s="9">
         <v>322.82</v>
       </c>
-      <c r="X9" s="9">
+      <c r="AB9" s="9">
         <v>1041.989</v>
       </c>
-      <c r="Y9" s="9">
+      <c r="AC9" s="9">
         <v>676.26179999999999</v>
       </c>
-      <c r="Z9" s="9">
+      <c r="AD9" s="9">
         <v>-334907.56</v>
       </c>
-      <c r="AA9" s="9">
+      <c r="AE9" s="9">
         <v>-280.94</v>
       </c>
-      <c r="AB9" s="9">
+      <c r="AF9" s="9">
         <v>-334957.59999999998</v>
       </c>
-      <c r="AC9" s="9">
+      <c r="AG9" s="9">
         <v>-1288.1099999999999</v>
       </c>
-      <c r="AD9" s="10">
+      <c r="AH9" s="10">
         <v>5</v>
       </c>
-      <c r="AE9" s="9">
+      <c r="AI9" s="9">
         <v>648.61416350000002</v>
       </c>
-      <c r="AF9" s="10">
+      <c r="AJ9" s="10">
         <v>97</v>
       </c>
-      <c r="AG9" s="1" t="str">
+      <c r="AK9" s="1" t="str">
+        <f>IF(I9&lt;Y9, "Abicare", "DST")</f>
+        <v>DST</v>
+      </c>
+      <c r="AL9" s="1" t="str">
+        <f>IF(J9&lt;Z9, "Abicare", "DST")</f>
+        <v>Abicare</v>
+      </c>
+      <c r="AM9" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>AbiOSRM</v>
+      </c>
+      <c r="AN9" s="1" t="str">
         <f t="shared" si="0"/>
         <v>DST</v>
       </c>
-      <c r="AH9" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Abicare</v>
-      </c>
-      <c r="AI9" s="1" t="str">
+      <c r="AO9" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>DST</v>
+      </c>
+      <c r="AP9" s="8">
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Abicare</v>
       </c>
-      <c r="AJ9" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>DST</v>
-      </c>
-      <c r="AK9" s="1" t="str">
+      <c r="AR9" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>DST</v>
-      </c>
-      <c r="AL9" s="8">
-        <v>0</v>
-      </c>
-      <c r="AM9" s="1" t="str">
+        <v>AbiOSRM</v>
+      </c>
+      <c r="AS9" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Abicare</v>
       </c>
-      <c r="AN9" s="1" t="str">
+      <c r="AT9" s="1" t="str">
+        <f>IF(R9&gt;AE9, "Abicare", "DST")</f>
+        <v>Abicare</v>
+      </c>
+      <c r="AU9" s="1" t="str">
+        <f>IF(S9&gt;AF9, "Abicare", "DST")</f>
+        <v>Abicare</v>
+      </c>
+      <c r="AV9" s="1" t="str">
+        <f>IF(T9&gt;AG9, "Abicare", "DST")</f>
+        <v>Abicare</v>
+      </c>
+      <c r="AW9" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>Abicare</v>
-      </c>
-      <c r="AO9" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>Abicare</v>
-      </c>
-      <c r="AP9" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Abicare</v>
-      </c>
-      <c r="AQ9" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Abicare</v>
-      </c>
-      <c r="AR9" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Abicare</v>
-      </c>
-    </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.2">
+        <v>AbiOSRM</v>
+      </c>
+      <c r="AX9" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>AbiOSRM</v>
+      </c>
+      <c r="AY9" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>AbiOSRM</v>
+      </c>
+      <c r="AZ9" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>AbiOSRM</v>
+      </c>
+    </row>
+    <row r="10" spans="1:52" x14ac:dyDescent="0.2">
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
       <c r="J10" s="10"/>
@@ -7450,20 +7928,24 @@
       <c r="AA10" s="9"/>
       <c r="AB10" s="9"/>
       <c r="AC10" s="9"/>
-      <c r="AD10" s="10"/>
-      <c r="AE10" s="10"/>
-      <c r="AF10" s="10"/>
-      <c r="AG10" s="10"/>
+      <c r="AD10" s="9"/>
+      <c r="AE10" s="9"/>
+      <c r="AF10" s="9"/>
+      <c r="AG10" s="9"/>
       <c r="AH10" s="10"/>
       <c r="AI10" s="10"/>
       <c r="AJ10" s="10"/>
       <c r="AK10" s="10"/>
-      <c r="AL10" s="17"/>
+      <c r="AL10" s="10"/>
       <c r="AM10" s="10"/>
       <c r="AN10" s="10"/>
       <c r="AO10" s="10"/>
-    </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AP10" s="17"/>
+      <c r="AQ10" s="10"/>
+      <c r="AR10" s="10"/>
+      <c r="AS10" s="10"/>
+    </row>
+    <row r="11" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -7490,20 +7972,24 @@
       <c r="AA11" s="9"/>
       <c r="AB11" s="9"/>
       <c r="AC11" s="9"/>
-      <c r="AD11" s="10"/>
-      <c r="AE11" s="10"/>
-      <c r="AF11" s="10"/>
-      <c r="AG11" s="10"/>
+      <c r="AD11" s="9"/>
+      <c r="AE11" s="9"/>
+      <c r="AF11" s="9"/>
+      <c r="AG11" s="9"/>
       <c r="AH11" s="10"/>
       <c r="AI11" s="10"/>
       <c r="AJ11" s="10"/>
       <c r="AK11" s="10"/>
-      <c r="AL11" s="17"/>
+      <c r="AL11" s="10"/>
       <c r="AM11" s="10"/>
       <c r="AN11" s="10"/>
       <c r="AO11" s="10"/>
-    </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AP11" s="17"/>
+      <c r="AQ11" s="10"/>
+      <c r="AR11" s="10"/>
+      <c r="AS11" s="10"/>
+    </row>
+    <row r="12" spans="1:52" x14ac:dyDescent="0.2">
       <c r="H12" s="13"/>
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
@@ -7518,10 +8004,10 @@
       <c r="T12" s="9"/>
       <c r="U12" s="9"/>
       <c r="V12" s="9"/>
-      <c r="W12" s="10"/>
-      <c r="X12" s="10"/>
-      <c r="Y12" s="10"/>
-      <c r="Z12" s="10"/>
+      <c r="W12" s="9"/>
+      <c r="X12" s="9"/>
+      <c r="Y12" s="9"/>
+      <c r="Z12" s="9"/>
       <c r="AA12" s="10"/>
       <c r="AB12" s="10"/>
       <c r="AC12" s="10"/>
@@ -7537,8 +8023,12 @@
       <c r="AM12" s="10"/>
       <c r="AN12" s="10"/>
       <c r="AO12" s="10"/>
-    </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AP12" s="10"/>
+      <c r="AQ12" s="10"/>
+      <c r="AR12" s="10"/>
+      <c r="AS12" s="10"/>
+    </row>
+    <row r="13" spans="1:52" x14ac:dyDescent="0.2">
       <c r="J13" s="10"/>
       <c r="K13" s="10"/>
       <c r="L13" s="10"/>
@@ -7552,10 +8042,10 @@
       <c r="T13" s="9"/>
       <c r="U13" s="9"/>
       <c r="V13" s="9"/>
-      <c r="W13" s="10"/>
-      <c r="X13" s="10"/>
-      <c r="Y13" s="10"/>
-      <c r="Z13" s="10"/>
+      <c r="W13" s="9"/>
+      <c r="X13" s="9"/>
+      <c r="Y13" s="9"/>
+      <c r="Z13" s="9"/>
       <c r="AA13" s="10"/>
       <c r="AB13" s="10"/>
       <c r="AC13" s="10"/>
@@ -7571,18 +8061,22 @@
       <c r="AM13" s="10"/>
       <c r="AN13" s="10"/>
       <c r="AO13" s="10"/>
-    </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AP13" s="10"/>
+      <c r="AQ13" s="10"/>
+      <c r="AR13" s="10"/>
+      <c r="AS13" s="10"/>
+    </row>
+    <row r="14" spans="1:52" x14ac:dyDescent="0.2">
       <c r="Q14" s="11"/>
       <c r="R14" s="12"/>
       <c r="S14" s="12"/>
     </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:52" x14ac:dyDescent="0.2">
       <c r="Q15" s="11"/>
       <c r="R15" s="12"/>
       <c r="S15" s="12"/>
     </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -11373,12 +11867,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C49B5B4B-4533-44D7-8358-A79D8B3FBA76}">
-  <dimension ref="A1:AR767"/>
+  <dimension ref="A1:AZ767"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
-      <selection activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="M2" sqref="M2"/>
+    <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11397,24 +11889,24 @@
     <col min="17" max="17" width="7.42578125" style="2" customWidth="1"/>
     <col min="18" max="18" width="8" style="2" customWidth="1"/>
     <col min="19" max="19" width="8.28515625" style="2" customWidth="1"/>
-    <col min="20" max="20" width="8.7109375" style="2" customWidth="1"/>
-    <col min="21" max="21" width="8.85546875" style="2" customWidth="1"/>
-    <col min="22" max="22" width="7.7109375" style="2" customWidth="1"/>
-    <col min="23" max="25" width="8.140625" style="2" customWidth="1"/>
-    <col min="26" max="26" width="8" style="2" customWidth="1"/>
-    <col min="27" max="27" width="7.85546875" style="2" customWidth="1"/>
-    <col min="28" max="28" width="8" style="2" customWidth="1"/>
-    <col min="29" max="29" width="8.5703125" style="2" customWidth="1"/>
-    <col min="30" max="30" width="6.85546875" style="2" customWidth="1"/>
-    <col min="31" max="31" width="8.28515625" style="2" customWidth="1"/>
-    <col min="32" max="41" width="9.42578125" style="2" customWidth="1"/>
-    <col min="42" max="42" width="8.5703125" style="2" customWidth="1"/>
-    <col min="43" max="43" width="9" style="2" customWidth="1"/>
-    <col min="44" max="44" width="8.7109375" style="2" customWidth="1"/>
-    <col min="45" max="16384" width="10.7109375" style="2"/>
+    <col min="20" max="24" width="8.7109375" style="2" customWidth="1"/>
+    <col min="25" max="25" width="8.85546875" style="2" customWidth="1"/>
+    <col min="26" max="26" width="7.7109375" style="2" customWidth="1"/>
+    <col min="27" max="29" width="8.140625" style="2" customWidth="1"/>
+    <col min="30" max="30" width="8" style="2" customWidth="1"/>
+    <col min="31" max="31" width="7.85546875" style="2" customWidth="1"/>
+    <col min="32" max="32" width="8" style="2" customWidth="1"/>
+    <col min="33" max="33" width="8.5703125" style="2" customWidth="1"/>
+    <col min="34" max="34" width="6.85546875" style="2" customWidth="1"/>
+    <col min="35" max="35" width="8.28515625" style="2" customWidth="1"/>
+    <col min="36" max="45" width="9.42578125" style="2" customWidth="1"/>
+    <col min="46" max="46" width="8.5703125" style="2" customWidth="1"/>
+    <col min="47" max="47" width="9" style="2" customWidth="1"/>
+    <col min="48" max="48" width="8.7109375" style="2" customWidth="1"/>
+    <col min="49" max="16384" width="10.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -11430,14 +11922,14 @@
       <c r="I1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:44" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:52" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
@@ -11498,80 +11990,104 @@
       <c r="T2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="U2" s="5" t="s">
+      <c r="U2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="V2" s="5" t="s">
+      <c r="Z2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="W2" s="5" t="s">
+      <c r="AA2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="X2" s="5" t="s">
+      <c r="AB2" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="Y2" s="5" t="s">
+      <c r="AC2" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="Z2" s="5" t="s">
+      <c r="AD2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="AA2" s="5" t="s">
+      <c r="AE2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="AB2" s="5" t="s">
+      <c r="AF2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="AC2" s="5" t="s">
+      <c r="AG2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="AD2" s="5" t="s">
+      <c r="AH2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="AE2" s="5" t="s">
+      <c r="AI2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AF2" s="5" t="s">
+      <c r="AJ2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="AG2" s="6" t="s">
+      <c r="AK2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="AH2" s="6" t="s">
+      <c r="AL2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="AI2" s="6" t="s">
+      <c r="AM2" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AJ2" s="6" t="s">
+      <c r="AN2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="AK2" s="6" t="s">
+      <c r="AO2" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AL2" s="6" t="s">
+      <c r="AP2" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="AM2" s="6" t="s">
+      <c r="AQ2" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="AN2" s="6" t="s">
+      <c r="AR2" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="AO2" s="6" t="s">
+      <c r="AS2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="AP2" s="6" t="s">
+      <c r="AT2" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="AQ2" s="6" t="s">
+      <c r="AU2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="AR2" s="6" t="s">
+      <c r="AV2" s="6" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AW2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AX2" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AY2" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ2" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <v>44137</v>
       </c>
@@ -11634,90 +12150,118 @@
         <v>-415</v>
       </c>
       <c r="U3" s="9">
+        <v>-45.914000000000001</v>
+      </c>
+      <c r="V3" s="9">
+        <v>-51.015999999999998</v>
+      </c>
+      <c r="W3" s="9">
+        <v>-111.914</v>
+      </c>
+      <c r="X3" s="9">
+        <v>-451</v>
+      </c>
+      <c r="Y3" s="9">
         <v>1449.9</v>
       </c>
-      <c r="V3" s="9">
+      <c r="Z3" s="9">
         <v>124.81</v>
       </c>
-      <c r="W3" s="9">
+      <c r="AA3" s="9">
         <v>260.08999999999997</v>
       </c>
-      <c r="X3" s="9">
+      <c r="AB3" s="9">
         <v>176.9607</v>
       </c>
-      <c r="Y3" s="9">
+      <c r="AC3" s="9">
         <v>100.00230000000001</v>
       </c>
-      <c r="Z3" s="9">
+      <c r="AD3" s="9">
         <v>-37.44</v>
       </c>
-      <c r="AA3" s="9">
+      <c r="AE3" s="9">
         <v>-41.6</v>
       </c>
-      <c r="AB3" s="9">
+      <c r="AF3" s="9">
         <v>-101.95</v>
       </c>
-      <c r="AC3" s="9">
+      <c r="AG3" s="9">
         <v>-384.9</v>
       </c>
-      <c r="AD3" s="10">
+      <c r="AH3" s="10">
         <v>5</v>
       </c>
-      <c r="AE3" s="9">
+      <c r="AI3" s="9">
         <v>613.55799999999999</v>
       </c>
-      <c r="AF3" s="10">
+      <c r="AJ3" s="10">
         <v>32717</v>
       </c>
-      <c r="AG3" s="1" t="str">
-        <f t="shared" ref="AG3:AH9" si="0">IF(I3&lt;U3, "Abicare", "DST")</f>
-        <v>DST</v>
-      </c>
-      <c r="AH3" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>DST</v>
-      </c>
-      <c r="AI3" s="1" t="str">
-        <f>IF(K3&lt;V3, "Abicare","DST")</f>
-        <v>DST</v>
-      </c>
-      <c r="AJ3" s="1" t="str">
-        <f t="shared" ref="AJ3:AJ9" si="1">IF(L3&lt;W3, "Abicare", "DST")</f>
+      <c r="AK3" s="1" t="str">
+        <f>IF(I3&lt;Y3, "Abicare", "DST")</f>
+        <v>DST</v>
+      </c>
+      <c r="AL3" s="1" t="str">
+        <f>IF(J3&lt;Z3, "Abicare", "DST")</f>
+        <v>DST</v>
+      </c>
+      <c r="AM3" s="1" t="str">
+        <f>IF(K3&lt;Z3, "AbiOSRM","DST")</f>
+        <v>DST</v>
+      </c>
+      <c r="AN3" s="1" t="str">
+        <f t="shared" ref="AN3:AN9" si="0">IF(L3&lt;AA3, "Abicare", "DST")</f>
         <v>Abicare</v>
       </c>
-      <c r="AK3" s="1" t="str">
-        <f>IF(M3&lt;W3, "Abicare", "DST")</f>
-        <v>DST</v>
-      </c>
-      <c r="AL3" s="8">
+      <c r="AO3" s="1" t="str">
+        <f>IF(M3&lt;AA3, "AbiOSRM", "DST")</f>
+        <v>DST</v>
+      </c>
+      <c r="AP3" s="8">
         <v>0</v>
       </c>
-      <c r="AM3" s="1" t="str">
-        <f>IF(O3&lt;Y3, "Abicare","DST")</f>
-        <v>DST</v>
-      </c>
-      <c r="AN3" s="1" t="str">
-        <f>IF(P3&lt;Y3, "Abicare", "DST")</f>
-        <v>DST</v>
-      </c>
-      <c r="AO3" s="1" t="str">
-        <f>IF(Q3&gt;Z3,"Abicare","DST")</f>
-        <v>DST</v>
-      </c>
-      <c r="AP3" s="1" t="str">
-        <f t="shared" ref="AP3:AR9" si="2">IF(R3&gt;AA3, "Abicare", "DST")</f>
-        <v>DST</v>
-      </c>
       <c r="AQ3" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(O3&lt;AC3, "Abicare","DST")</f>
         <v>DST</v>
       </c>
       <c r="AR3" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>DST</v>
-      </c>
-    </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.2">
+        <f>IF(P3&lt;AC3, "AbiOSRM", "DST")</f>
+        <v>DST</v>
+      </c>
+      <c r="AS3" s="1" t="str">
+        <f>IF(Q3&gt;AD3,"Abicare","DST")</f>
+        <v>DST</v>
+      </c>
+      <c r="AT3" s="1" t="str">
+        <f>IF(R3&gt;AE3, "Abicare", "DST")</f>
+        <v>DST</v>
+      </c>
+      <c r="AU3" s="1" t="str">
+        <f>IF(S3&gt;AF3, "Abicare", "DST")</f>
+        <v>DST</v>
+      </c>
+      <c r="AV3" s="1" t="str">
+        <f>IF(T3&gt;AG3, "Abicare", "DST")</f>
+        <v>DST</v>
+      </c>
+      <c r="AW3" s="1" t="str">
+        <f>IF(U3&gt;AD3, "AbiOSRM", "DST")</f>
+        <v>DST</v>
+      </c>
+      <c r="AX3" s="1" t="str">
+        <f>IF(V3&gt;AE3, "AbiOSRM", "DST")</f>
+        <v>DST</v>
+      </c>
+      <c r="AY3" s="1" t="str">
+        <f>IF(W3&gt;AF3, "AbiOSRM", "DST")</f>
+        <v>DST</v>
+      </c>
+      <c r="AZ3" s="1" t="str">
+        <f>IF(X3&gt;AG3, "AbiOSRM", "DST")</f>
+        <v>DST</v>
+      </c>
+    </row>
+    <row r="4" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>44138</v>
       </c>
@@ -11746,7 +12290,7 @@
         <v>73.948999999999998</v>
       </c>
       <c r="M4" s="9">
-        <f t="shared" ref="M4:M9" si="3">I4-H4-K4</f>
+        <f t="shared" ref="M4:M9" si="1">I4-H4-K4</f>
         <v>110.53299999999999</v>
       </c>
       <c r="N4" s="9">
@@ -11771,90 +12315,118 @@
         <v>-240</v>
       </c>
       <c r="U4" s="9">
+        <v>-38.840000000000003</v>
+      </c>
+      <c r="V4" s="9">
+        <v>-43.155999999999999</v>
+      </c>
+      <c r="W4" s="9">
+        <v>-67.34</v>
+      </c>
+      <c r="X4" s="9">
+        <v>-240</v>
+      </c>
+      <c r="Y4" s="9">
         <v>1015.74</v>
       </c>
-      <c r="V4" s="9">
+      <c r="Z4" s="9">
         <v>119.21</v>
       </c>
-      <c r="W4" s="9">
+      <c r="AA4" s="9">
         <v>56.53</v>
       </c>
-      <c r="X4" s="9">
+      <c r="AB4" s="9">
         <v>201.54830000000001</v>
       </c>
-      <c r="Y4" s="9">
+      <c r="AC4" s="9">
         <v>99.028999999999996</v>
       </c>
-      <c r="Z4" s="9">
+      <c r="AD4" s="9">
         <v>-35.76</v>
       </c>
-      <c r="AA4" s="9">
+      <c r="AE4" s="9">
         <v>-39.74</v>
       </c>
-      <c r="AB4" s="9">
+      <c r="AF4" s="9">
         <v>-62.27</v>
       </c>
-      <c r="AC4" s="9">
+      <c r="AG4" s="9">
         <v>-175.74</v>
       </c>
-      <c r="AD4" s="10">
+      <c r="AH4" s="10">
         <v>5</v>
       </c>
-      <c r="AE4" s="9">
+      <c r="AI4" s="9">
         <v>612.35530000000006</v>
       </c>
-      <c r="AF4" s="10">
+      <c r="AJ4" s="10">
         <v>27561</v>
       </c>
-      <c r="AG4" s="1" t="str">
+      <c r="AK4" s="1" t="str">
+        <f>IF(I4&lt;Y4, "Abicare", "DST")</f>
+        <v>DST</v>
+      </c>
+      <c r="AL4" s="1" t="str">
+        <f>IF(J4&lt;Z4, "Abicare", "DST")</f>
+        <v>DST</v>
+      </c>
+      <c r="AM4" s="1" t="str">
+        <f t="shared" ref="AM4:AM9" si="2">IF(K4&lt;Z4, "AbiOSRM","DST")</f>
+        <v>DST</v>
+      </c>
+      <c r="AN4" s="1" t="str">
         <f t="shared" si="0"/>
         <v>DST</v>
       </c>
-      <c r="AH4" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>DST</v>
-      </c>
-      <c r="AI4" s="1" t="str">
-        <f t="shared" ref="AI4:AI9" si="4">IF(K4&lt;V4, "Abicare","DST")</f>
-        <v>DST</v>
-      </c>
-      <c r="AJ4" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>DST</v>
-      </c>
-      <c r="AK4" s="1" t="str">
-        <f t="shared" ref="AK4:AK9" si="5">IF(M4&lt;W4, "Abicare", "DST")</f>
-        <v>DST</v>
-      </c>
-      <c r="AL4" s="8">
+      <c r="AO4" s="1" t="str">
+        <f t="shared" ref="AO4:AO9" si="3">IF(M4&lt;AA4, "AbiOSRM", "DST")</f>
+        <v>DST</v>
+      </c>
+      <c r="AP4" s="8">
         <v>0</v>
       </c>
-      <c r="AM4" s="1" t="str">
-        <f t="shared" ref="AM4:AM9" si="6">IF(O4&lt;Y4, "Abicare","DST")</f>
-        <v>DST</v>
-      </c>
-      <c r="AN4" s="1" t="str">
-        <f t="shared" ref="AN4:AN9" si="7">IF(P4&lt;Y4, "Abicare", "DST")</f>
-        <v>DST</v>
-      </c>
-      <c r="AO4" s="1" t="str">
-        <f t="shared" ref="AO4:AO9" si="8">IF(Q4&gt;Z4,"Abicare","DST")</f>
-        <v>DST</v>
-      </c>
-      <c r="AP4" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>DST</v>
-      </c>
       <c r="AQ4" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="AQ4:AQ9" si="4">IF(O4&lt;AC4, "Abicare","DST")</f>
         <v>DST</v>
       </c>
       <c r="AR4" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>DST</v>
-      </c>
-    </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.2">
+        <f t="shared" ref="AR4:AR9" si="5">IF(P4&lt;AC4, "AbiOSRM", "DST")</f>
+        <v>DST</v>
+      </c>
+      <c r="AS4" s="1" t="str">
+        <f t="shared" ref="AS4:AS9" si="6">IF(Q4&gt;AD4,"Abicare","DST")</f>
+        <v>DST</v>
+      </c>
+      <c r="AT4" s="1" t="str">
+        <f>IF(R4&gt;AE4, "Abicare", "DST")</f>
+        <v>DST</v>
+      </c>
+      <c r="AU4" s="1" t="str">
+        <f>IF(S4&gt;AF4, "Abicare", "DST")</f>
+        <v>DST</v>
+      </c>
+      <c r="AV4" s="1" t="str">
+        <f>IF(T4&gt;AG4, "Abicare", "DST")</f>
+        <v>DST</v>
+      </c>
+      <c r="AW4" s="1" t="str">
+        <f t="shared" ref="AW4:AZ9" si="7">IF(U4&gt;AD4, "AbiOSRM", "DST")</f>
+        <v>DST</v>
+      </c>
+      <c r="AX4" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>DST</v>
+      </c>
+      <c r="AY4" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>DST</v>
+      </c>
+      <c r="AZ4" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>DST</v>
+      </c>
+    </row>
+    <row r="5" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>44139</v>
       </c>
@@ -11883,7 +12455,7 @@
         <v>36.716000000000001</v>
       </c>
       <c r="M5" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>73.807999999999993</v>
       </c>
       <c r="N5" s="9">
@@ -11908,90 +12480,118 @@
         <v>-215</v>
       </c>
       <c r="U5" s="9">
+        <v>-42.356999999999999</v>
+      </c>
+      <c r="V5" s="9">
+        <v>-47.064</v>
+      </c>
+      <c r="W5" s="9">
+        <v>-81.856999999999999</v>
+      </c>
+      <c r="X5" s="9">
+        <v>-215</v>
+      </c>
+      <c r="Y5" s="9">
         <v>1321.32</v>
       </c>
-      <c r="V5" s="9">
+      <c r="Z5" s="9">
         <v>119.79</v>
       </c>
-      <c r="W5" s="9">
+      <c r="AA5" s="9">
         <v>61.53</v>
       </c>
-      <c r="X5" s="9">
+      <c r="AB5" s="9">
         <v>183.23249999999999</v>
       </c>
-      <c r="Y5" s="9">
+      <c r="AC5" s="9">
         <v>90.210499999999996</v>
       </c>
-      <c r="Z5" s="9">
+      <c r="AD5" s="9">
         <v>-35.94</v>
       </c>
-      <c r="AA5" s="9">
+      <c r="AE5" s="9">
         <v>-39.93</v>
       </c>
-      <c r="AB5" s="9">
+      <c r="AF5" s="9">
         <v>-75.38</v>
       </c>
-      <c r="AC5" s="9">
+      <c r="AG5" s="9">
         <v>-181.32</v>
       </c>
-      <c r="AD5" s="10">
+      <c r="AH5" s="10">
         <v>5</v>
       </c>
-      <c r="AE5" s="9">
+      <c r="AI5" s="9">
         <v>612.82500000000005</v>
       </c>
-      <c r="AF5" s="10">
+      <c r="AJ5" s="10">
         <v>16121</v>
       </c>
-      <c r="AG5" s="1" t="str">
+      <c r="AK5" s="1" t="str">
+        <f>IF(I5&lt;Y5, "Abicare", "DST")</f>
+        <v>DST</v>
+      </c>
+      <c r="AL5" s="1" t="str">
+        <f>IF(J5&lt;Z5, "Abicare", "DST")</f>
+        <v>DST</v>
+      </c>
+      <c r="AM5" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>DST</v>
+      </c>
+      <c r="AN5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>DST</v>
-      </c>
-      <c r="AH5" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>DST</v>
-      </c>
-      <c r="AI5" s="1" t="str">
+        <v>Abicare</v>
+      </c>
+      <c r="AO5" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>DST</v>
+      </c>
+      <c r="AP5" s="8">
+        <v>0</v>
+      </c>
+      <c r="AQ5" s="1" t="str">
         <f t="shared" si="4"/>
         <v>DST</v>
       </c>
-      <c r="AJ5" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Abicare</v>
-      </c>
-      <c r="AK5" s="1" t="str">
+      <c r="AR5" s="1" t="str">
         <f t="shared" si="5"/>
         <v>DST</v>
       </c>
-      <c r="AL5" s="8">
-        <v>0</v>
-      </c>
-      <c r="AM5" s="1" t="str">
+      <c r="AS5" s="1" t="str">
         <f t="shared" si="6"/>
         <v>DST</v>
       </c>
-      <c r="AN5" s="1" t="str">
+      <c r="AT5" s="1" t="str">
+        <f>IF(R5&gt;AE5, "Abicare", "DST")</f>
+        <v>DST</v>
+      </c>
+      <c r="AU5" s="1" t="str">
+        <f>IF(S5&gt;AF5, "Abicare", "DST")</f>
+        <v>DST</v>
+      </c>
+      <c r="AV5" s="1" t="str">
+        <f>IF(T5&gt;AG5, "Abicare", "DST")</f>
+        <v>DST</v>
+      </c>
+      <c r="AW5" s="1" t="str">
         <f t="shared" si="7"/>
         <v>DST</v>
       </c>
-      <c r="AO5" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>DST</v>
-      </c>
-      <c r="AP5" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>DST</v>
-      </c>
-      <c r="AQ5" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>DST</v>
-      </c>
-      <c r="AR5" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>DST</v>
-      </c>
-    </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AX5" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>DST</v>
+      </c>
+      <c r="AY5" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>DST</v>
+      </c>
+      <c r="AZ5" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>DST</v>
+      </c>
+    </row>
+    <row r="6" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>44140</v>
       </c>
@@ -12020,7 +12620,7 @@
         <v>338.416</v>
       </c>
       <c r="M6" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>381.00700000000001</v>
       </c>
       <c r="N6" s="9">
@@ -12045,90 +12645,118 @@
         <v>-550</v>
       </c>
       <c r="U6" s="9">
+        <v>-50.698</v>
+      </c>
+      <c r="V6" s="9">
+        <v>-56.331000000000003</v>
+      </c>
+      <c r="W6" s="9">
+        <v>-126.19799999999999</v>
+      </c>
+      <c r="X6" s="9">
+        <v>-550</v>
+      </c>
+      <c r="Y6" s="9">
         <v>1905</v>
       </c>
-      <c r="V6" s="9">
+      <c r="Z6" s="9">
         <v>122.75</v>
       </c>
-      <c r="W6" s="9">
+      <c r="AA6" s="9">
         <v>332.25</v>
       </c>
-      <c r="X6" s="9">
+      <c r="AB6" s="9">
         <v>289.50369999999998</v>
       </c>
-      <c r="Y6" s="9">
+      <c r="AC6" s="9">
         <v>92.003900000000002</v>
       </c>
-      <c r="Z6" s="9">
+      <c r="AD6" s="9">
         <v>-36.82</v>
       </c>
-      <c r="AA6" s="9">
+      <c r="AE6" s="9">
         <v>-40.92</v>
       </c>
-      <c r="AB6" s="9">
+      <c r="AF6" s="9">
         <v>-110.82</v>
       </c>
-      <c r="AC6" s="9">
+      <c r="AG6" s="9">
         <v>-455</v>
       </c>
-      <c r="AD6" s="10">
+      <c r="AH6" s="10">
         <v>5</v>
       </c>
-      <c r="AE6" s="9">
+      <c r="AI6" s="9">
         <v>613.17487949999997</v>
       </c>
-      <c r="AF6" s="10">
+      <c r="AJ6" s="10">
         <v>15930</v>
       </c>
-      <c r="AG6" s="1" t="str">
+      <c r="AK6" s="1" t="str">
+        <f>IF(I6&lt;Y6, "Abicare", "DST")</f>
+        <v>DST</v>
+      </c>
+      <c r="AL6" s="1" t="str">
+        <f>IF(J6&lt;Z6, "Abicare", "DST")</f>
+        <v>DST</v>
+      </c>
+      <c r="AM6" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>DST</v>
+      </c>
+      <c r="AN6" s="1" t="str">
         <f t="shared" si="0"/>
         <v>DST</v>
       </c>
-      <c r="AH6" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>DST</v>
-      </c>
-      <c r="AI6" s="1" t="str">
+      <c r="AO6" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>DST</v>
+      </c>
+      <c r="AP6" s="8">
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="1" t="str">
         <f t="shared" si="4"/>
         <v>DST</v>
       </c>
-      <c r="AJ6" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>DST</v>
-      </c>
-      <c r="AK6" s="1" t="str">
+      <c r="AR6" s="1" t="str">
         <f t="shared" si="5"/>
         <v>DST</v>
       </c>
-      <c r="AL6" s="8">
-        <v>0</v>
-      </c>
-      <c r="AM6" s="1" t="str">
+      <c r="AS6" s="1" t="str">
         <f t="shared" si="6"/>
         <v>DST</v>
       </c>
-      <c r="AN6" s="1" t="str">
+      <c r="AT6" s="1" t="str">
+        <f>IF(R6&gt;AE6, "Abicare", "DST")</f>
+        <v>DST</v>
+      </c>
+      <c r="AU6" s="1" t="str">
+        <f>IF(S6&gt;AF6, "Abicare", "DST")</f>
+        <v>DST</v>
+      </c>
+      <c r="AV6" s="1" t="str">
+        <f>IF(T6&gt;AG6, "Abicare", "DST")</f>
+        <v>DST</v>
+      </c>
+      <c r="AW6" s="1" t="str">
         <f t="shared" si="7"/>
         <v>DST</v>
       </c>
-      <c r="AO6" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>DST</v>
-      </c>
-      <c r="AP6" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>DST</v>
-      </c>
-      <c r="AQ6" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>DST</v>
-      </c>
-      <c r="AR6" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>DST</v>
-      </c>
-    </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AX6" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>DST</v>
+      </c>
+      <c r="AY6" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>DST</v>
+      </c>
+      <c r="AZ6" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>DST</v>
+      </c>
+    </row>
+    <row r="7" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <v>44141</v>
       </c>
@@ -12157,7 +12785,7 @@
         <v>402.03300000000002</v>
       </c>
       <c r="M7" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>431.92</v>
       </c>
       <c r="N7" s="9">
@@ -12182,90 +12810,118 @@
         <v>-555</v>
       </c>
       <c r="U7" s="9">
+        <v>-36.923999999999999</v>
+      </c>
+      <c r="V7" s="9">
+        <v>-41.027000000000001</v>
+      </c>
+      <c r="W7" s="9">
+        <v>-103.92400000000001</v>
+      </c>
+      <c r="X7" s="9">
+        <v>-555</v>
+      </c>
+      <c r="Y7" s="9">
         <v>1345.28</v>
       </c>
-      <c r="V7" s="9">
+      <c r="Z7" s="9">
         <v>108.11</v>
       </c>
-      <c r="W7" s="9">
+      <c r="AA7" s="9">
         <v>322.17</v>
       </c>
-      <c r="X7" s="9">
+      <c r="AB7" s="9">
         <v>154.2988</v>
       </c>
-      <c r="Y7" s="9">
+      <c r="AC7" s="9">
         <v>83.698400000000007</v>
       </c>
-      <c r="Z7" s="9">
+      <c r="AD7" s="9">
         <v>-32.43</v>
       </c>
-      <c r="AA7" s="9">
+      <c r="AE7" s="9">
         <v>-36.04</v>
       </c>
-      <c r="AB7" s="9">
+      <c r="AF7" s="9">
         <v>-98</v>
       </c>
-      <c r="AC7" s="9">
+      <c r="AG7" s="9">
         <v>-427.39</v>
       </c>
-      <c r="AD7" s="10">
+      <c r="AH7" s="10">
         <v>5</v>
       </c>
-      <c r="AE7" s="9">
+      <c r="AI7" s="9">
         <v>612.44156399999997</v>
       </c>
-      <c r="AF7" s="10">
+      <c r="AJ7" s="10">
         <v>20125</v>
       </c>
-      <c r="AG7" s="1" t="str">
+      <c r="AK7" s="1" t="str">
+        <f>IF(I7&lt;Y7, "Abicare", "DST")</f>
+        <v>DST</v>
+      </c>
+      <c r="AL7" s="1" t="str">
+        <f>IF(J7&lt;Z7, "Abicare", "DST")</f>
+        <v>DST</v>
+      </c>
+      <c r="AM7" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>DST</v>
+      </c>
+      <c r="AN7" s="1" t="str">
         <f t="shared" si="0"/>
         <v>DST</v>
       </c>
-      <c r="AH7" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>DST</v>
-      </c>
-      <c r="AI7" s="1" t="str">
+      <c r="AO7" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>DST</v>
+      </c>
+      <c r="AP7" s="8">
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="1" t="str">
         <f t="shared" si="4"/>
         <v>DST</v>
       </c>
-      <c r="AJ7" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>DST</v>
-      </c>
-      <c r="AK7" s="1" t="str">
+      <c r="AR7" s="1" t="str">
         <f t="shared" si="5"/>
         <v>DST</v>
       </c>
-      <c r="AL7" s="8">
-        <v>0</v>
-      </c>
-      <c r="AM7" s="1" t="str">
+      <c r="AS7" s="1" t="str">
         <f t="shared" si="6"/>
         <v>DST</v>
       </c>
-      <c r="AN7" s="1" t="str">
+      <c r="AT7" s="1" t="str">
+        <f>IF(R7&gt;AE7, "Abicare", "DST")</f>
+        <v>DST</v>
+      </c>
+      <c r="AU7" s="1" t="str">
+        <f>IF(S7&gt;AF7, "Abicare", "DST")</f>
+        <v>DST</v>
+      </c>
+      <c r="AV7" s="1" t="str">
+        <f>IF(T7&gt;AG7, "Abicare", "DST")</f>
+        <v>DST</v>
+      </c>
+      <c r="AW7" s="1" t="str">
         <f t="shared" si="7"/>
         <v>DST</v>
       </c>
-      <c r="AO7" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>DST</v>
-      </c>
-      <c r="AP7" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>DST</v>
-      </c>
-      <c r="AQ7" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>DST</v>
-      </c>
-      <c r="AR7" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>DST</v>
-      </c>
-    </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AX7" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>DST</v>
+      </c>
+      <c r="AY7" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>DST</v>
+      </c>
+      <c r="AZ7" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>DST</v>
+      </c>
+    </row>
+    <row r="8" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <v>44142</v>
       </c>
@@ -12294,7 +12950,7 @@
         <v>212.29900000000001</v>
       </c>
       <c r="M8" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>246.08799999999999</v>
       </c>
       <c r="N8" s="9">
@@ -12319,90 +12975,118 @@
         <v>-380</v>
       </c>
       <c r="U8" s="9">
+        <v>-40.173999999999999</v>
+      </c>
+      <c r="V8" s="9">
+        <v>-44.637</v>
+      </c>
+      <c r="W8" s="9">
+        <v>-99.173000000000002</v>
+      </c>
+      <c r="X8" s="9">
+        <v>-380</v>
+      </c>
+      <c r="Y8" s="9">
         <v>1005.92</v>
       </c>
-      <c r="V8" s="9">
+      <c r="Z8" s="9">
         <v>108.08</v>
       </c>
-      <c r="W8" s="9">
+      <c r="AA8" s="9">
         <v>212.84</v>
       </c>
-      <c r="X8" s="9">
+      <c r="AB8" s="9">
         <v>122.8265</v>
       </c>
-      <c r="Y8" s="9">
+      <c r="AC8" s="9">
         <v>82.7714</v>
       </c>
-      <c r="Z8" s="9">
+      <c r="AD8" s="9">
         <v>-32.42</v>
       </c>
-      <c r="AA8" s="9">
+      <c r="AE8" s="9">
         <v>-36.03</v>
       </c>
-      <c r="AB8" s="9">
+      <c r="AF8" s="9">
         <v>-89.92</v>
       </c>
-      <c r="AC8" s="9">
+      <c r="AG8" s="9">
         <v>-313.88</v>
       </c>
-      <c r="AD8" s="10">
+      <c r="AH8" s="10">
         <v>5</v>
       </c>
-      <c r="AE8" s="9">
+      <c r="AI8" s="9">
         <v>612.01901769999995</v>
       </c>
-      <c r="AF8" s="10">
+      <c r="AJ8" s="10">
         <v>48046</v>
       </c>
-      <c r="AG8" s="1" t="str">
+      <c r="AK8" s="1" t="str">
+        <f>IF(I8&lt;Y8, "Abicare", "DST")</f>
+        <v>DST</v>
+      </c>
+      <c r="AL8" s="1" t="str">
+        <f>IF(J8&lt;Z8, "Abicare", "DST")</f>
+        <v>DST</v>
+      </c>
+      <c r="AM8" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>DST</v>
+      </c>
+      <c r="AN8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>DST</v>
-      </c>
-      <c r="AH8" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>DST</v>
-      </c>
-      <c r="AI8" s="1" t="str">
+        <v>Abicare</v>
+      </c>
+      <c r="AO8" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>DST</v>
+      </c>
+      <c r="AP8" s="8">
+        <v>0</v>
+      </c>
+      <c r="AQ8" s="1" t="str">
         <f t="shared" si="4"/>
         <v>DST</v>
       </c>
-      <c r="AJ8" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Abicare</v>
-      </c>
-      <c r="AK8" s="1" t="str">
+      <c r="AR8" s="1" t="str">
         <f t="shared" si="5"/>
         <v>DST</v>
       </c>
-      <c r="AL8" s="8">
-        <v>0</v>
-      </c>
-      <c r="AM8" s="1" t="str">
+      <c r="AS8" s="1" t="str">
         <f t="shared" si="6"/>
         <v>DST</v>
       </c>
-      <c r="AN8" s="1" t="str">
+      <c r="AT8" s="1" t="str">
+        <f>IF(R8&gt;AE8, "Abicare", "DST")</f>
+        <v>DST</v>
+      </c>
+      <c r="AU8" s="1" t="str">
+        <f>IF(S8&gt;AF8, "Abicare", "DST")</f>
+        <v>DST</v>
+      </c>
+      <c r="AV8" s="1" t="str">
+        <f>IF(T8&gt;AG8, "Abicare", "DST")</f>
+        <v>DST</v>
+      </c>
+      <c r="AW8" s="1" t="str">
         <f t="shared" si="7"/>
         <v>DST</v>
       </c>
-      <c r="AO8" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>DST</v>
-      </c>
-      <c r="AP8" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>DST</v>
-      </c>
-      <c r="AQ8" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>DST</v>
-      </c>
-      <c r="AR8" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>DST</v>
-      </c>
-    </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AX8" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>DST</v>
+      </c>
+      <c r="AY8" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>DST</v>
+      </c>
+      <c r="AZ8" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>DST</v>
+      </c>
+    </row>
+    <row r="9" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>44143</v>
       </c>
@@ -12431,7 +13115,7 @@
         <v>143.51660000000001</v>
       </c>
       <c r="M9" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>177.405</v>
       </c>
       <c r="N9" s="9">
@@ -12456,90 +13140,118 @@
         <v>-320</v>
       </c>
       <c r="U9" s="9">
+        <v>-42.779000000000003</v>
+      </c>
+      <c r="V9" s="9">
+        <v>-47.531999999999996</v>
+      </c>
+      <c r="W9" s="9">
+        <v>-59.779000000000003</v>
+      </c>
+      <c r="X9" s="9">
+        <v>-320</v>
+      </c>
+      <c r="Y9" s="9">
         <v>1006.87</v>
       </c>
-      <c r="V9" s="9">
+      <c r="Z9" s="9">
         <v>119.98</v>
       </c>
-      <c r="W9" s="9">
+      <c r="AA9" s="9">
         <v>156.88999999999999</v>
       </c>
-      <c r="X9" s="9">
+      <c r="AB9" s="9">
         <v>209.75710000000001</v>
       </c>
-      <c r="Y9" s="9">
+      <c r="AC9" s="9">
         <v>91.528700000000001</v>
       </c>
-      <c r="Z9" s="9">
+      <c r="AD9" s="9">
         <v>-35.99</v>
       </c>
-      <c r="AA9" s="9">
+      <c r="AE9" s="9">
         <v>-39.99</v>
       </c>
-      <c r="AB9" s="9">
+      <c r="AF9" s="9">
         <v>-51.87</v>
       </c>
-      <c r="AC9" s="9">
+      <c r="AG9" s="9">
         <v>-270.3</v>
       </c>
-      <c r="AD9" s="10">
+      <c r="AH9" s="10">
         <v>5</v>
       </c>
-      <c r="AE9" s="9">
+      <c r="AI9" s="9">
         <v>611.86568130000001</v>
       </c>
-      <c r="AF9" s="10">
+      <c r="AJ9" s="10">
         <v>44925</v>
       </c>
-      <c r="AG9" s="1" t="str">
+      <c r="AK9" s="1" t="str">
+        <f>IF(I9&lt;Y9, "Abicare", "DST")</f>
+        <v>DST</v>
+      </c>
+      <c r="AL9" s="1" t="str">
+        <f>IF(J9&lt;Z9, "Abicare", "DST")</f>
+        <v>DST</v>
+      </c>
+      <c r="AM9" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>DST</v>
+      </c>
+      <c r="AN9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>DST</v>
-      </c>
-      <c r="AH9" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>DST</v>
-      </c>
-      <c r="AI9" s="1" t="str">
+        <v>Abicare</v>
+      </c>
+      <c r="AO9" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>DST</v>
+      </c>
+      <c r="AP9" s="8">
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="1" t="str">
         <f t="shared" si="4"/>
         <v>DST</v>
       </c>
-      <c r="AJ9" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Abicare</v>
-      </c>
-      <c r="AK9" s="1" t="str">
+      <c r="AR9" s="1" t="str">
         <f t="shared" si="5"/>
         <v>DST</v>
       </c>
-      <c r="AL9" s="8">
-        <v>0</v>
-      </c>
-      <c r="AM9" s="1" t="str">
+      <c r="AS9" s="1" t="str">
         <f t="shared" si="6"/>
         <v>DST</v>
       </c>
-      <c r="AN9" s="1" t="str">
+      <c r="AT9" s="1" t="str">
+        <f>IF(R9&gt;AE9, "Abicare", "DST")</f>
+        <v>DST</v>
+      </c>
+      <c r="AU9" s="1" t="str">
+        <f>IF(S9&gt;AF9, "Abicare", "DST")</f>
+        <v>DST</v>
+      </c>
+      <c r="AV9" s="1" t="str">
+        <f>IF(T9&gt;AG9, "Abicare", "DST")</f>
+        <v>DST</v>
+      </c>
+      <c r="AW9" s="1" t="str">
         <f t="shared" si="7"/>
         <v>DST</v>
       </c>
-      <c r="AO9" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>DST</v>
-      </c>
-      <c r="AP9" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>DST</v>
-      </c>
-      <c r="AQ9" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>DST</v>
-      </c>
-      <c r="AR9" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>DST</v>
-      </c>
-    </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AX9" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>DST</v>
+      </c>
+      <c r="AY9" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>DST</v>
+      </c>
+      <c r="AZ9" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>DST</v>
+      </c>
+    </row>
+    <row r="10" spans="1:52" x14ac:dyDescent="0.2">
       <c r="H10" s="13"/>
       <c r="I10" s="9"/>
       <c r="J10" s="10"/>
@@ -12562,10 +13274,10 @@
       <c r="AA10" s="9"/>
       <c r="AB10" s="9"/>
       <c r="AC10" s="9"/>
-      <c r="AD10" s="10"/>
-      <c r="AE10" s="10"/>
-      <c r="AF10" s="10"/>
-      <c r="AG10" s="10"/>
+      <c r="AD10" s="9"/>
+      <c r="AE10" s="9"/>
+      <c r="AF10" s="9"/>
+      <c r="AG10" s="9"/>
       <c r="AH10" s="10"/>
       <c r="AI10" s="10"/>
       <c r="AJ10" s="10"/>
@@ -12574,8 +13286,12 @@
       <c r="AM10" s="10"/>
       <c r="AN10" s="10"/>
       <c r="AO10" s="10"/>
-    </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AP10" s="10"/>
+      <c r="AQ10" s="10"/>
+      <c r="AR10" s="10"/>
+      <c r="AS10" s="10"/>
+    </row>
+    <row r="11" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -12602,10 +13318,10 @@
       <c r="AA11" s="9"/>
       <c r="AB11" s="9"/>
       <c r="AC11" s="9"/>
-      <c r="AD11" s="10"/>
-      <c r="AE11" s="10"/>
-      <c r="AF11" s="10"/>
-      <c r="AG11" s="10"/>
+      <c r="AD11" s="9"/>
+      <c r="AE11" s="9"/>
+      <c r="AF11" s="9"/>
+      <c r="AG11" s="9"/>
       <c r="AH11" s="10"/>
       <c r="AI11" s="10"/>
       <c r="AJ11" s="10"/>
@@ -12614,8 +13330,12 @@
       <c r="AM11" s="10"/>
       <c r="AN11" s="10"/>
       <c r="AO11" s="10"/>
-    </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AP11" s="10"/>
+      <c r="AQ11" s="10"/>
+      <c r="AR11" s="10"/>
+      <c r="AS11" s="10"/>
+    </row>
+    <row r="12" spans="1:52" x14ac:dyDescent="0.2">
       <c r="I12" s="13"/>
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
@@ -12630,10 +13350,10 @@
       <c r="T12" s="9"/>
       <c r="U12" s="9"/>
       <c r="V12" s="9"/>
-      <c r="W12" s="10"/>
-      <c r="X12" s="10"/>
-      <c r="Y12" s="10"/>
-      <c r="Z12" s="10"/>
+      <c r="W12" s="9"/>
+      <c r="X12" s="9"/>
+      <c r="Y12" s="9"/>
+      <c r="Z12" s="9"/>
       <c r="AA12" s="10"/>
       <c r="AB12" s="10"/>
       <c r="AC12" s="10"/>
@@ -12649,8 +13369,12 @@
       <c r="AM12" s="10"/>
       <c r="AN12" s="10"/>
       <c r="AO12" s="10"/>
-    </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AP12" s="10"/>
+      <c r="AQ12" s="10"/>
+      <c r="AR12" s="10"/>
+      <c r="AS12" s="10"/>
+    </row>
+    <row r="13" spans="1:52" x14ac:dyDescent="0.2">
       <c r="I13" s="13"/>
       <c r="J13" s="10"/>
       <c r="K13" s="10"/>
@@ -12665,10 +13389,10 @@
       <c r="T13" s="9"/>
       <c r="U13" s="9"/>
       <c r="V13" s="9"/>
-      <c r="W13" s="10"/>
-      <c r="X13" s="10"/>
-      <c r="Y13" s="10"/>
-      <c r="Z13" s="10"/>
+      <c r="W13" s="9"/>
+      <c r="X13" s="9"/>
+      <c r="Y13" s="9"/>
+      <c r="Z13" s="9"/>
       <c r="AA13" s="10"/>
       <c r="AB13" s="10"/>
       <c r="AC13" s="10"/>
@@ -12684,18 +13408,22 @@
       <c r="AM13" s="10"/>
       <c r="AN13" s="10"/>
       <c r="AO13" s="10"/>
-    </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AP13" s="10"/>
+      <c r="AQ13" s="10"/>
+      <c r="AR13" s="10"/>
+      <c r="AS13" s="10"/>
+    </row>
+    <row r="14" spans="1:52" x14ac:dyDescent="0.2">
       <c r="Q14" s="11"/>
       <c r="R14" s="12"/>
       <c r="S14" s="12"/>
     </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:52" x14ac:dyDescent="0.2">
       <c r="Q15" s="11"/>
       <c r="R15" s="12"/>
       <c r="S15" s="12"/>
     </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
